--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8671839961739514</v>
+        <v>0.8671839961739509</v>
       </c>
       <c r="D2">
-        <v>1.013940963682427</v>
+        <v>1.013940963682426</v>
       </c>
       <c r="E2">
-        <v>0.889461415983323</v>
+        <v>0.8894614159833224</v>
       </c>
       <c r="F2">
-        <v>0.9423530839326052</v>
+        <v>0.9423530839326042</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039998681096435</v>
       </c>
       <c r="J2">
-        <v>0.8942198394629659</v>
+        <v>0.8942198394629652</v>
       </c>
       <c r="K2">
         <v>1.025209436109022</v>
       </c>
       <c r="L2">
-        <v>0.9027105893634023</v>
+        <v>0.9027105893634015</v>
       </c>
       <c r="M2">
-        <v>0.9546785711629413</v>
+        <v>0.9546785711629409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8925999290765305</v>
+        <v>0.8925999290765309</v>
       </c>
       <c r="D3">
         <v>1.021889057999409</v>
       </c>
       <c r="E3">
-        <v>0.9112945685161874</v>
+        <v>0.911294568516188</v>
       </c>
       <c r="F3">
-        <v>0.9603421362946963</v>
+        <v>0.960342136294697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044306056637097</v>
+        <v>1.044306056637096</v>
       </c>
       <c r="J3">
-        <v>0.9165182006799099</v>
+        <v>0.9165182006799101</v>
       </c>
       <c r="K3">
         <v>1.032249320069965</v>
       </c>
       <c r="L3">
-        <v>0.9232041114779277</v>
+        <v>0.9232041114779281</v>
       </c>
       <c r="M3">
-        <v>0.971508920045824</v>
+        <v>0.9715089200458245</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9073645936813217</v>
+        <v>0.9073645936813224</v>
       </c>
       <c r="D4">
         <v>1.026608306854023</v>
       </c>
       <c r="E4">
-        <v>0.9240012982783373</v>
+        <v>0.9240012982783377</v>
       </c>
       <c r="F4">
-        <v>0.9708902490379534</v>
+        <v>0.9708902490379535</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.046824790431512</v>
       </c>
       <c r="J4">
-        <v>0.9294764383838093</v>
+        <v>0.9294764383838098</v>
       </c>
       <c r="K4">
         <v>1.036395858891233</v>
       </c>
       <c r="L4">
-        <v>0.9351126189300498</v>
+        <v>0.93511261893005</v>
       </c>
       <c r="M4">
         <v>0.9813531812290155</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9132468296515989</v>
+        <v>0.913246829651598</v>
       </c>
       <c r="D5">
         <v>1.028507352290378</v>
       </c>
       <c r="E5">
-        <v>0.9290678547317531</v>
+        <v>0.9290678547317524</v>
       </c>
       <c r="F5">
         <v>0.975109704899052</v>
@@ -553,16 +553,16 @@
         <v>1.047829677718939</v>
       </c>
       <c r="J5">
-        <v>0.9346390377617224</v>
+        <v>0.9346390377617217</v>
       </c>
       <c r="K5">
         <v>1.038057185357081</v>
       </c>
       <c r="L5">
-        <v>0.9398566980908333</v>
+        <v>0.9398566980908325</v>
       </c>
       <c r="M5">
-        <v>0.985285706050233</v>
+        <v>0.9852857060502332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9142172052366108</v>
+        <v>0.9142172052366109</v>
       </c>
       <c r="D6">
-        <v>1.028821612297923</v>
+        <v>1.028821612297922</v>
       </c>
       <c r="E6">
-        <v>0.929903885168432</v>
+        <v>0.9299038851684319</v>
       </c>
       <c r="F6">
-        <v>0.9758066334735727</v>
+        <v>0.9758066334735724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04799547420648</v>
+        <v>1.047995474206479</v>
       </c>
       <c r="J6">
         <v>0.9354906748492837</v>
@@ -600,7 +600,7 @@
         <v>0.9406392749940186</v>
       </c>
       <c r="M6">
-        <v>0.9859349362868304</v>
+        <v>0.9859349362868303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9074443858560324</v>
+        <v>0.9074443858560303</v>
       </c>
       <c r="D7">
         <v>1.026633997837107</v>
       </c>
       <c r="E7">
-        <v>0.9240700105060828</v>
+        <v>0.9240700105060805</v>
       </c>
       <c r="F7">
-        <v>0.9709474242841563</v>
+        <v>0.9709474242841553</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046838418822944</v>
       </c>
       <c r="J7">
-        <v>0.9295464697279685</v>
+        <v>0.9295464697279666</v>
       </c>
       <c r="K7">
         <v>1.036418362082693</v>
       </c>
       <c r="L7">
-        <v>0.9351769743068845</v>
+        <v>0.9351769743068825</v>
       </c>
       <c r="M7">
-        <v>0.9814064894555246</v>
+        <v>0.9814064894555237</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.876178445680269</v>
+        <v>0.8761784456802676</v>
       </c>
       <c r="D8">
         <v>1.016726760871701</v>
       </c>
       <c r="E8">
-        <v>0.8971816447619858</v>
+        <v>0.8971816447619849</v>
       </c>
       <c r="F8">
-        <v>0.9486925020378796</v>
+        <v>0.9486925020378787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041517417118117</v>
+        <v>1.041517417118116</v>
       </c>
       <c r="J8">
-        <v>0.9021091349309557</v>
+        <v>0.9021091349309543</v>
       </c>
       <c r="K8">
-        <v>1.027684825813629</v>
+        <v>1.027684825813628</v>
       </c>
       <c r="L8">
-        <v>0.9099614409805996</v>
+        <v>0.9099614409805984</v>
       </c>
       <c r="M8">
-        <v>0.9606154390095242</v>
+        <v>0.9606154390095234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8017916793923072</v>
+        <v>0.8017916793923081</v>
       </c>
       <c r="D9">
         <v>0.994706716543951</v>
       </c>
       <c r="E9">
-        <v>0.8335911084221628</v>
+        <v>0.8335911084221636</v>
       </c>
       <c r="F9">
-        <v>0.8973603613700387</v>
+        <v>0.8973603613700388</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029262767333224</v>
       </c>
       <c r="J9">
-        <v>0.8369895139428347</v>
+        <v>0.8369895139428355</v>
       </c>
       <c r="K9">
         <v>1.007886261369</v>
       </c>
       <c r="L9">
-        <v>0.8501176084922483</v>
+        <v>0.850117608492249</v>
       </c>
       <c r="M9">
-        <v>0.9123715446591759</v>
+        <v>0.9123715446591761</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D10">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E10">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F10">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J10">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K10">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L10">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M10">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D11">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E11">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F11">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J11">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K11">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L11">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M11">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D12">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E12">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F12">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J12">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K12">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L12">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M12">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D13">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E13">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F13">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J13">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K13">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L13">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M13">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D14">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E14">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F14">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J14">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K14">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L14">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M14">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D15">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E15">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F15">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J15">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K15">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L15">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M15">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D16">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E16">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F16">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J16">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K16">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L16">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M16">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D17">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E17">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F17">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J17">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K17">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L17">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M17">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D18">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E18">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F18">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J18">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K18">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L18">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M18">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D19">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E19">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F19">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J19">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K19">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L19">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M19">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D20">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E20">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F20">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J20">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K20">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L20">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M20">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D21">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E21">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F21">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J21">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K21">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L21">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M21">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D22">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E22">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F22">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J22">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K22">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L22">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M22">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D23">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E23">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F23">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J23">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K23">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L23">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M23">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D24">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E24">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F24">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J24">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K24">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L24">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M24">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7086204974712257</v>
+        <v>0.7086204974712205</v>
       </c>
       <c r="D25">
-        <v>0.9710201993556736</v>
+        <v>0.9710201993556729</v>
       </c>
       <c r="E25">
-        <v>0.7551091831009152</v>
+        <v>0.7551091831009105</v>
       </c>
       <c r="F25">
-        <v>0.8377789111622065</v>
+        <v>0.8377789111622044</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J25">
-        <v>0.7562011415118628</v>
+        <v>0.7562011415118581</v>
       </c>
       <c r="K25">
-        <v>0.9859331774626667</v>
+        <v>0.9859331774626661</v>
       </c>
       <c r="L25">
-        <v>0.7759568185641296</v>
+        <v>0.775956818564125</v>
       </c>
       <c r="M25">
-        <v>0.8558588492447027</v>
+        <v>0.8558588492447003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8671839961739509</v>
+        <v>0.8671839961739514</v>
       </c>
       <c r="D2">
-        <v>1.013940963682426</v>
+        <v>1.013940963682427</v>
       </c>
       <c r="E2">
-        <v>0.8894614159833224</v>
+        <v>0.889461415983323</v>
       </c>
       <c r="F2">
-        <v>0.9423530839326042</v>
+        <v>0.9423530839326052</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039998681096435</v>
       </c>
       <c r="J2">
-        <v>0.8942198394629652</v>
+        <v>0.8942198394629659</v>
       </c>
       <c r="K2">
         <v>1.025209436109022</v>
       </c>
       <c r="L2">
-        <v>0.9027105893634015</v>
+        <v>0.9027105893634023</v>
       </c>
       <c r="M2">
-        <v>0.9546785711629409</v>
+        <v>0.9546785711629413</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8925999290765309</v>
+        <v>0.8925999290765305</v>
       </c>
       <c r="D3">
         <v>1.021889057999409</v>
       </c>
       <c r="E3">
-        <v>0.911294568516188</v>
+        <v>0.9112945685161874</v>
       </c>
       <c r="F3">
-        <v>0.960342136294697</v>
+        <v>0.9603421362946963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044306056637096</v>
+        <v>1.044306056637097</v>
       </c>
       <c r="J3">
-        <v>0.9165182006799101</v>
+        <v>0.9165182006799099</v>
       </c>
       <c r="K3">
         <v>1.032249320069965</v>
       </c>
       <c r="L3">
-        <v>0.9232041114779281</v>
+        <v>0.9232041114779277</v>
       </c>
       <c r="M3">
-        <v>0.9715089200458245</v>
+        <v>0.971508920045824</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9073645936813224</v>
+        <v>0.9073645936813217</v>
       </c>
       <c r="D4">
         <v>1.026608306854023</v>
       </c>
       <c r="E4">
-        <v>0.9240012982783377</v>
+        <v>0.9240012982783373</v>
       </c>
       <c r="F4">
-        <v>0.9708902490379535</v>
+        <v>0.9708902490379534</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.046824790431512</v>
       </c>
       <c r="J4">
-        <v>0.9294764383838098</v>
+        <v>0.9294764383838093</v>
       </c>
       <c r="K4">
         <v>1.036395858891233</v>
       </c>
       <c r="L4">
-        <v>0.93511261893005</v>
+        <v>0.9351126189300498</v>
       </c>
       <c r="M4">
         <v>0.9813531812290155</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.913246829651598</v>
+        <v>0.9132468296515989</v>
       </c>
       <c r="D5">
         <v>1.028507352290378</v>
       </c>
       <c r="E5">
-        <v>0.9290678547317524</v>
+        <v>0.9290678547317531</v>
       </c>
       <c r="F5">
         <v>0.975109704899052</v>
@@ -553,16 +553,16 @@
         <v>1.047829677718939</v>
       </c>
       <c r="J5">
-        <v>0.9346390377617217</v>
+        <v>0.9346390377617224</v>
       </c>
       <c r="K5">
         <v>1.038057185357081</v>
       </c>
       <c r="L5">
-        <v>0.9398566980908325</v>
+        <v>0.9398566980908333</v>
       </c>
       <c r="M5">
-        <v>0.9852857060502332</v>
+        <v>0.985285706050233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9142172052366109</v>
+        <v>0.9142172052366108</v>
       </c>
       <c r="D6">
-        <v>1.028821612297922</v>
+        <v>1.028821612297923</v>
       </c>
       <c r="E6">
-        <v>0.9299038851684319</v>
+        <v>0.929903885168432</v>
       </c>
       <c r="F6">
-        <v>0.9758066334735724</v>
+        <v>0.9758066334735727</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047995474206479</v>
+        <v>1.04799547420648</v>
       </c>
       <c r="J6">
         <v>0.9354906748492837</v>
@@ -600,7 +600,7 @@
         <v>0.9406392749940186</v>
       </c>
       <c r="M6">
-        <v>0.9859349362868303</v>
+        <v>0.9859349362868304</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9074443858560303</v>
+        <v>0.9074443858560324</v>
       </c>
       <c r="D7">
         <v>1.026633997837107</v>
       </c>
       <c r="E7">
-        <v>0.9240700105060805</v>
+        <v>0.9240700105060828</v>
       </c>
       <c r="F7">
-        <v>0.9709474242841553</v>
+        <v>0.9709474242841563</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046838418822944</v>
       </c>
       <c r="J7">
-        <v>0.9295464697279666</v>
+        <v>0.9295464697279685</v>
       </c>
       <c r="K7">
         <v>1.036418362082693</v>
       </c>
       <c r="L7">
-        <v>0.9351769743068825</v>
+        <v>0.9351769743068845</v>
       </c>
       <c r="M7">
-        <v>0.9814064894555237</v>
+        <v>0.9814064894555246</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8761784456802676</v>
+        <v>0.876178445680269</v>
       </c>
       <c r="D8">
         <v>1.016726760871701</v>
       </c>
       <c r="E8">
-        <v>0.8971816447619849</v>
+        <v>0.8971816447619858</v>
       </c>
       <c r="F8">
-        <v>0.9486925020378787</v>
+        <v>0.9486925020378796</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041517417118116</v>
+        <v>1.041517417118117</v>
       </c>
       <c r="J8">
-        <v>0.9021091349309543</v>
+        <v>0.9021091349309557</v>
       </c>
       <c r="K8">
-        <v>1.027684825813628</v>
+        <v>1.027684825813629</v>
       </c>
       <c r="L8">
-        <v>0.9099614409805984</v>
+        <v>0.9099614409805996</v>
       </c>
       <c r="M8">
-        <v>0.9606154390095234</v>
+        <v>0.9606154390095242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8017916793923081</v>
+        <v>0.8017916793923072</v>
       </c>
       <c r="D9">
         <v>0.994706716543951</v>
       </c>
       <c r="E9">
-        <v>0.8335911084221636</v>
+        <v>0.8335911084221628</v>
       </c>
       <c r="F9">
-        <v>0.8973603613700388</v>
+        <v>0.8973603613700387</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029262767333224</v>
       </c>
       <c r="J9">
-        <v>0.8369895139428355</v>
+        <v>0.8369895139428347</v>
       </c>
       <c r="K9">
         <v>1.007886261369</v>
       </c>
       <c r="L9">
-        <v>0.850117608492249</v>
+        <v>0.8501176084922483</v>
       </c>
       <c r="M9">
-        <v>0.9123715446591761</v>
+        <v>0.9123715446591759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D10">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E10">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F10">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J10">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K10">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L10">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M10">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D11">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E11">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F11">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J11">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K11">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L11">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M11">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D12">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E12">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F12">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J12">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K12">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L12">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M12">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D13">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E13">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F13">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J13">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K13">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L13">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M13">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D14">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E14">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F14">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J14">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K14">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L14">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M14">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D15">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E15">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F15">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J15">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K15">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L15">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M15">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D16">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E16">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F16">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J16">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K16">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L16">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M16">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D17">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E17">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F17">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J17">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K17">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L17">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M17">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D18">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E18">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F18">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J18">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K18">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L18">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M18">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D19">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E19">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F19">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J19">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K19">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L19">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M19">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D20">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E20">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F20">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J20">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K20">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L20">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M20">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D21">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E21">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F21">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J21">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K21">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L21">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M21">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D22">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E22">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F22">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J22">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K22">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L22">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M22">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D23">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E23">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F23">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J23">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K23">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L23">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M23">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D24">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E24">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F24">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J24">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K24">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L24">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M24">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7086204974712205</v>
+        <v>0.7086204974712257</v>
       </c>
       <c r="D25">
-        <v>0.9710201993556729</v>
+        <v>0.9710201993556736</v>
       </c>
       <c r="E25">
-        <v>0.7551091831009105</v>
+        <v>0.7551091831009152</v>
       </c>
       <c r="F25">
-        <v>0.8377789111622044</v>
+        <v>0.8377789111622065</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.015431255914588</v>
       </c>
       <c r="J25">
-        <v>0.7562011415118581</v>
+        <v>0.7562011415118628</v>
       </c>
       <c r="K25">
-        <v>0.9859331774626661</v>
+        <v>0.9859331774626667</v>
       </c>
       <c r="L25">
-        <v>0.775956818564125</v>
+        <v>0.7759568185641296</v>
       </c>
       <c r="M25">
-        <v>0.8558588492447003</v>
+        <v>0.8558588492447027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8671839961739514</v>
+        <v>0.8734012456081089</v>
       </c>
       <c r="D2">
-        <v>1.013940963682427</v>
+        <v>1.015066823587924</v>
       </c>
       <c r="E2">
-        <v>0.889461415983323</v>
+        <v>0.8947988228682184</v>
       </c>
       <c r="F2">
-        <v>0.9423530839326052</v>
+        <v>0.9457133104387031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039998681096435</v>
+        <v>1.04071520637264</v>
       </c>
       <c r="J2">
-        <v>0.8942198394629659</v>
+        <v>0.9001624595208947</v>
       </c>
       <c r="K2">
-        <v>1.025209436109022</v>
+        <v>1.026320169663472</v>
       </c>
       <c r="L2">
-        <v>0.9027105893634023</v>
+        <v>0.9079483257512745</v>
       </c>
       <c r="M2">
-        <v>0.9546785711629413</v>
+        <v>0.9579845934536175</v>
+      </c>
+      <c r="N2">
+        <v>0.9014407934634916</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8925999290765305</v>
+        <v>0.8985430126377291</v>
       </c>
       <c r="D3">
-        <v>1.021889057999409</v>
+        <v>1.022957705112645</v>
       </c>
       <c r="E3">
-        <v>0.9112945685161874</v>
+        <v>0.9164086948417368</v>
       </c>
       <c r="F3">
-        <v>0.9603421362946963</v>
+        <v>0.9635403969977245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044306056637097</v>
+        <v>1.044987329270483</v>
       </c>
       <c r="J3">
-        <v>0.9165182006799099</v>
+        <v>0.9222414237193625</v>
       </c>
       <c r="K3">
-        <v>1.032249320069965</v>
+        <v>1.033305028670491</v>
       </c>
       <c r="L3">
-        <v>0.9232041114779277</v>
+        <v>0.9282360332610907</v>
       </c>
       <c r="M3">
-        <v>0.971508920045824</v>
+        <v>0.9746620661239099</v>
+      </c>
+      <c r="N3">
+        <v>0.9235511123236139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9073645936813217</v>
+        <v>0.9131790764943175</v>
       </c>
       <c r="D4">
-        <v>1.026608306854023</v>
+        <v>1.027649484601098</v>
       </c>
       <c r="E4">
-        <v>0.9240012982783373</v>
+        <v>0.9290109582948045</v>
       </c>
       <c r="F4">
-        <v>0.9708902490379534</v>
+        <v>0.9740113321390137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046824790431512</v>
+        <v>1.047489251090373</v>
       </c>
       <c r="J4">
-        <v>0.9294764383838093</v>
+        <v>0.9350984370504422</v>
       </c>
       <c r="K4">
-        <v>1.036395858891233</v>
+        <v>1.037425275660041</v>
       </c>
       <c r="L4">
-        <v>0.9351126189300498</v>
+        <v>0.9400490462611776</v>
       </c>
       <c r="M4">
-        <v>0.9813531812290155</v>
+        <v>0.9844338787428497</v>
+      </c>
+      <c r="N4">
+        <v>0.9364263840883436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9132468296515989</v>
+        <v>0.9190154049603525</v>
       </c>
       <c r="D5">
-        <v>1.028507352290378</v>
+        <v>1.029538601016774</v>
       </c>
       <c r="E5">
-        <v>0.9290678547317531</v>
+        <v>0.9340402920558563</v>
       </c>
       <c r="F5">
-        <v>0.975109704899052</v>
+        <v>0.9782030042945985</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047829677718939</v>
+        <v>1.048488087271099</v>
       </c>
       <c r="J5">
-        <v>0.9346390377617224</v>
+        <v>0.9402252779314845</v>
       </c>
       <c r="K5">
-        <v>1.038057185357081</v>
+        <v>1.039077126866026</v>
       </c>
       <c r="L5">
-        <v>0.9398566980908333</v>
+        <v>0.9447592777230461</v>
       </c>
       <c r="M5">
-        <v>0.985285706050233</v>
+        <v>0.9883404096886709</v>
+      </c>
+      <c r="N5">
+        <v>0.9415605056714942</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9142172052366108</v>
+        <v>0.9199784787797919</v>
       </c>
       <c r="D6">
-        <v>1.028821612297923</v>
+        <v>1.029851275152007</v>
       </c>
       <c r="E6">
-        <v>0.929903885168432</v>
+        <v>0.934870406346805</v>
       </c>
       <c r="F6">
-        <v>0.9758066334735727</v>
+        <v>0.9788955012400182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04799547420648</v>
+        <v>1.048652918767519</v>
       </c>
       <c r="J6">
-        <v>0.9354906748492837</v>
+        <v>0.9410712492595882</v>
       </c>
       <c r="K6">
-        <v>1.038331697181746</v>
+        <v>1.039350126914528</v>
       </c>
       <c r="L6">
-        <v>0.9406392749940186</v>
+        <v>0.9455364852153483</v>
       </c>
       <c r="M6">
-        <v>0.9859349362868304</v>
+        <v>0.9889854988074802</v>
+      </c>
+      <c r="N6">
+        <v>0.9424076783759179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9074443858560324</v>
+        <v>0.9132582266203618</v>
       </c>
       <c r="D7">
-        <v>1.026633997837107</v>
+        <v>1.027675037199872</v>
       </c>
       <c r="E7">
-        <v>0.9240700105060828</v>
+        <v>0.9290791496406938</v>
       </c>
       <c r="F7">
-        <v>0.9709474242841563</v>
+        <v>0.9740681197184948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046838418822944</v>
+        <v>1.047502795040055</v>
       </c>
       <c r="J7">
-        <v>0.9295464697279685</v>
+        <v>0.9351679667464139</v>
       </c>
       <c r="K7">
-        <v>1.036418362082693</v>
+        <v>1.037447646677011</v>
       </c>
       <c r="L7">
-        <v>0.9351769743068845</v>
+        <v>0.9401129272543682</v>
       </c>
       <c r="M7">
-        <v>0.9814064894555246</v>
+        <v>0.9844868239208731</v>
+      </c>
+      <c r="N7">
+        <v>0.9364960125244587</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.876178445680269</v>
+        <v>0.882290128786176</v>
       </c>
       <c r="D8">
-        <v>1.016726760871701</v>
+        <v>1.01783077873648</v>
       </c>
       <c r="E8">
-        <v>0.8971816447619858</v>
+        <v>0.9024330154881268</v>
       </c>
       <c r="F8">
-        <v>0.9486925020378796</v>
+        <v>0.9519907232428724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041517417118117</v>
+        <v>1.042220453874429</v>
       </c>
       <c r="J8">
-        <v>0.9021091349309557</v>
+        <v>0.9079668195631734</v>
       </c>
       <c r="K8">
-        <v>1.027684825813629</v>
+        <v>1.02877451836764</v>
       </c>
       <c r="L8">
-        <v>0.9099614409805996</v>
+        <v>0.915119653299085</v>
       </c>
       <c r="M8">
-        <v>0.9606154390095242</v>
+        <v>0.9638628274477524</v>
+      </c>
+      <c r="N8">
+        <v>0.9092562365922031</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8017916793923072</v>
+        <v>0.8091989143439183</v>
       </c>
       <c r="D9">
-        <v>0.994706716543951</v>
+        <v>0.9960690839450442</v>
       </c>
       <c r="E9">
-        <v>0.8335911084221628</v>
+        <v>0.8398997612911264</v>
       </c>
       <c r="F9">
-        <v>0.8973603613700387</v>
+        <v>0.9014005388368993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029262767333224</v>
+        <v>1.030126567869962</v>
       </c>
       <c r="J9">
-        <v>0.8369895139428347</v>
+        <v>0.8439088732901772</v>
       </c>
       <c r="K9">
-        <v>1.007886261369</v>
+        <v>1.009226261108061</v>
       </c>
       <c r="L9">
-        <v>0.8501176084922483</v>
+        <v>0.8562624637082582</v>
       </c>
       <c r="M9">
-        <v>0.9123715446591759</v>
+        <v>0.9163252753073071</v>
+      </c>
+      <c r="N9">
+        <v>0.8451073206879498</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D10">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E10">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F10">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J10">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K10">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L10">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M10">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N10">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D11">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E11">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F11">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J11">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K11">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L11">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M11">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N11">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D12">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E12">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F12">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J12">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K12">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L12">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M12">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N12">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D13">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E13">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F13">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J13">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K13">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L13">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M13">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N13">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D14">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E14">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F14">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J14">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K14">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L14">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M14">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N14">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D15">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E15">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F15">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J15">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K15">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L15">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M15">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N15">
+        <v>0.7688206423849346</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D16">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E16">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F16">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J16">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K16">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L16">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M16">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N16">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D17">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E17">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F17">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J17">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K17">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L17">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M17">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N17">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D18">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E18">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F18">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J18">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K18">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L18">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M18">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N18">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D19">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E19">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F19">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J19">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K19">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L19">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M19">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N19">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D20">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E20">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F20">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J20">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K20">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L20">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M20">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N20">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D21">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E21">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F21">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J21">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K21">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L21">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M21">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N21">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D22">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E22">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F22">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J22">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K22">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L22">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M22">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N22">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D23">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E23">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F23">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J23">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K23">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L23">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M23">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N23">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D24">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E24">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F24">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J24">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K24">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L24">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M24">
-        <v>0.8558588492447027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N24">
+        <v>0.7688206423849346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7086204974712257</v>
+        <v>0.7215269343759774</v>
       </c>
       <c r="D25">
-        <v>0.9710201993556736</v>
+        <v>0.9734101145689443</v>
       </c>
       <c r="E25">
-        <v>0.7551091831009152</v>
+        <v>0.7658971566153445</v>
       </c>
       <c r="F25">
-        <v>0.8377789111622065</v>
+        <v>0.8448258339714843</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015431255914588</v>
+        <v>1.016940922667705</v>
       </c>
       <c r="J25">
-        <v>0.7562011415118628</v>
+        <v>0.7677303771894205</v>
       </c>
       <c r="K25">
-        <v>0.9859331774626667</v>
+        <v>0.9882766473042935</v>
       </c>
       <c r="L25">
-        <v>0.7759568185641296</v>
+        <v>0.7863358073828081</v>
       </c>
       <c r="M25">
-        <v>0.8558588492447027</v>
+        <v>0.8627039862107859</v>
+      </c>
+      <c r="N25">
+        <v>0.7688206423849346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.8734012456081089</v>
+        <v>0.8212647040254355</v>
       </c>
       <c r="D2">
-        <v>1.015066823587924</v>
+        <v>1.03701617855195</v>
       </c>
       <c r="E2">
-        <v>0.8947988228682184</v>
+        <v>0.8487426829777862</v>
       </c>
       <c r="F2">
-        <v>0.9457133104387031</v>
+        <v>0.7851723343779857</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04071520637264</v>
+        <v>1.04966493641165</v>
       </c>
       <c r="J2">
-        <v>0.9001624595208947</v>
+        <v>0.8505172759191569</v>
       </c>
       <c r="K2">
-        <v>1.026320169663472</v>
+        <v>1.047982825807516</v>
       </c>
       <c r="L2">
-        <v>0.9079483257512745</v>
+        <v>0.8628069290175766</v>
       </c>
       <c r="M2">
-        <v>0.9579845934536175</v>
+        <v>0.8007389155749174</v>
       </c>
       <c r="N2">
-        <v>0.9014407934634916</v>
+        <v>0.8517251080066571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8985430126377291</v>
+        <v>0.8522449237830803</v>
       </c>
       <c r="D3">
-        <v>1.022957705112645</v>
+        <v>1.038724435454634</v>
       </c>
       <c r="E3">
-        <v>0.9164086948417368</v>
+        <v>0.8754629390471013</v>
       </c>
       <c r="F3">
-        <v>0.9635403969977245</v>
+        <v>0.8225143627199045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044987329270483</v>
+        <v>1.049990288268154</v>
       </c>
       <c r="J3">
-        <v>0.9222414237193625</v>
+        <v>0.8777722704907166</v>
       </c>
       <c r="K3">
-        <v>1.033305028670491</v>
+        <v>1.04888469248286</v>
       </c>
       <c r="L3">
-        <v>0.9282360332610907</v>
+        <v>0.8879834354825383</v>
       </c>
       <c r="M3">
-        <v>0.9746620661239099</v>
+        <v>0.8360667511767617</v>
       </c>
       <c r="N3">
-        <v>0.9235511123236139</v>
+        <v>0.8790188077967001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9131790764943175</v>
+        <v>0.8693373729004602</v>
       </c>
       <c r="D4">
-        <v>1.027649484601098</v>
+        <v>1.039807736879433</v>
       </c>
       <c r="E4">
-        <v>0.9290109582948045</v>
+        <v>0.8902465704005328</v>
       </c>
       <c r="F4">
-        <v>0.9740113321390137</v>
+        <v>0.842981922126889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047489251090373</v>
+        <v>1.050183150691575</v>
       </c>
       <c r="J4">
-        <v>0.9350984370504422</v>
+        <v>0.8927978325870549</v>
       </c>
       <c r="K4">
-        <v>1.037425275660041</v>
+        <v>1.049448332132398</v>
       </c>
       <c r="L4">
-        <v>0.9400490462611776</v>
+        <v>0.9018789010563922</v>
       </c>
       <c r="M4">
-        <v>0.9844338787428497</v>
+        <v>0.8554352674505428</v>
       </c>
       <c r="N4">
-        <v>0.9364263840883436</v>
+        <v>0.8940657079146714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9190154049603525</v>
+        <v>0.8760090274153642</v>
       </c>
       <c r="D5">
-        <v>1.029538601016774</v>
+        <v>1.040257915130859</v>
       </c>
       <c r="E5">
-        <v>0.9340402920558563</v>
+        <v>0.8960238881060777</v>
       </c>
       <c r="F5">
-        <v>0.9782030042945985</v>
+        <v>0.8509502807883476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048488087271099</v>
+        <v>1.050260008368905</v>
       </c>
       <c r="J5">
-        <v>0.9402252779314845</v>
+        <v>0.8986595076481365</v>
       </c>
       <c r="K5">
-        <v>1.039077126866026</v>
+        <v>1.049680534409773</v>
       </c>
       <c r="L5">
-        <v>0.9447592777230461</v>
+        <v>0.9073021158686171</v>
       </c>
       <c r="M5">
-        <v>0.9883404096886709</v>
+        <v>0.8629755145695365</v>
       </c>
       <c r="N5">
-        <v>0.9415605056714942</v>
+        <v>0.899935707226683</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9199784787797919</v>
+        <v>0.8771029473463787</v>
       </c>
       <c r="D6">
-        <v>1.029851275152007</v>
+        <v>1.040333195749658</v>
       </c>
       <c r="E6">
-        <v>0.934870406346805</v>
+        <v>0.896971506798089</v>
       </c>
       <c r="F6">
-        <v>0.9788955012400182</v>
+        <v>0.8522558259713839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048652918767519</v>
+        <v>1.05027266572413</v>
       </c>
       <c r="J6">
-        <v>0.9410712492595882</v>
+        <v>0.8996204196354852</v>
       </c>
       <c r="K6">
-        <v>1.039350126914528</v>
+        <v>1.04971924407449</v>
       </c>
       <c r="L6">
-        <v>0.9455364852153483</v>
+        <v>0.9081912636692479</v>
       </c>
       <c r="M6">
-        <v>0.9889854988074802</v>
+        <v>0.8642108758719997</v>
       </c>
       <c r="N6">
-        <v>0.9424076783759179</v>
+        <v>0.9008979838192719</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9132582266203618</v>
+        <v>0.8694283561071001</v>
       </c>
       <c r="D7">
-        <v>1.027675037199872</v>
+        <v>1.039813772728468</v>
       </c>
       <c r="E7">
-        <v>0.9290791496406938</v>
+        <v>0.890325332770503</v>
       </c>
       <c r="F7">
-        <v>0.9740681197184948</v>
+        <v>0.8430906611212455</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047502795040055</v>
+        <v>1.050184194246958</v>
       </c>
       <c r="J7">
-        <v>0.9351679667464139</v>
+        <v>0.8928777833200807</v>
       </c>
       <c r="K7">
-        <v>1.037447646677011</v>
+        <v>1.049451453476574</v>
       </c>
       <c r="L7">
-        <v>0.9401129272543682</v>
+        <v>0.9019528630565186</v>
       </c>
       <c r="M7">
-        <v>0.9844868239208731</v>
+        <v>0.8555381665859737</v>
       </c>
       <c r="N7">
-        <v>0.9364960125244587</v>
+        <v>0.8941457721869087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.882290128786176</v>
+        <v>0.8325038312869482</v>
       </c>
       <c r="D8">
-        <v>1.01783077873648</v>
+        <v>1.037598082249529</v>
       </c>
       <c r="E8">
-        <v>0.9024330154881268</v>
+        <v>0.8584240888761869</v>
       </c>
       <c r="F8">
-        <v>0.9519907232428724</v>
+        <v>0.7987612055303329</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042220453874429</v>
+        <v>1.049778551927297</v>
       </c>
       <c r="J8">
-        <v>0.9079668195631734</v>
+        <v>0.8604072540861065</v>
       </c>
       <c r="K8">
-        <v>1.02877451836764</v>
+        <v>1.048291754076944</v>
       </c>
       <c r="L8">
-        <v>0.915119653299085</v>
+        <v>0.871937833422666</v>
       </c>
       <c r="M8">
-        <v>0.9638628274477524</v>
+        <v>0.813592328680722</v>
       </c>
       <c r="N8">
-        <v>0.9092562365922031</v>
+        <v>0.8616291310770003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8091989143439183</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D9">
-        <v>0.9960690839450442</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E9">
-        <v>0.8398997612911264</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F9">
-        <v>0.9014005388368993</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030126567869962</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J9">
-        <v>0.8439088732901772</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K9">
-        <v>1.009226261108061</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L9">
-        <v>0.8562624637082582</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M9">
-        <v>0.9163252753073071</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N9">
-        <v>0.8451073206879498</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D10">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E10">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F10">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J10">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K10">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L10">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M10">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N10">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D11">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E11">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F11">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J11">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K11">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L11">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M11">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N11">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D12">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E12">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F12">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J12">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K12">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L12">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M12">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N12">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D13">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E13">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F13">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J13">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K13">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L13">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M13">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N13">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D14">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E14">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F14">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J14">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K14">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L14">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M14">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N14">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D15">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E15">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F15">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J15">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K15">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L15">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M15">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N15">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D16">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E16">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F16">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J16">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K16">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L16">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M16">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N16">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D17">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E17">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F17">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J17">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K17">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L17">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M17">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N17">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D18">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E18">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F18">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J18">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K18">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L18">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M18">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N18">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D19">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E19">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F19">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J19">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K19">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L19">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M19">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N19">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D20">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E20">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F20">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J20">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K20">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L20">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M20">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N20">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D21">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E21">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F21">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J21">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K21">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L21">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M21">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N21">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D22">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E22">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F22">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J22">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K22">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L22">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M22">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N22">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D23">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E23">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F23">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J23">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K23">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L23">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M23">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N23">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D24">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E24">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F24">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J24">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K24">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L24">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M24">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N24">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7215269343759774</v>
+        <v>0.7111867245225982</v>
       </c>
       <c r="D25">
-        <v>0.9734101145689443</v>
+        <v>1.033523028001089</v>
       </c>
       <c r="E25">
-        <v>0.7658971566153445</v>
+        <v>0.7549096444727437</v>
       </c>
       <c r="F25">
-        <v>0.8448258339714843</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.016940922667705</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J25">
-        <v>0.7677303771894205</v>
+        <v>0.7536333359112699</v>
       </c>
       <c r="K25">
-        <v>0.9882766473042935</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L25">
-        <v>0.7863358073828081</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M25">
-        <v>0.8627039862107859</v>
+        <v>0.6712253208434676</v>
       </c>
       <c r="N25">
-        <v>0.7688206423849346</v>
+        <v>0.7547035816912157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8212647040254355</v>
+        <v>1.011625395771131</v>
       </c>
       <c r="D2">
-        <v>1.03701617855195</v>
+        <v>1.039800779675963</v>
       </c>
       <c r="E2">
-        <v>0.8487426829777862</v>
+        <v>1.027050798574424</v>
       </c>
       <c r="F2">
-        <v>0.7851723343779857</v>
+        <v>1.0393139005027</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04966493641165</v>
+        <v>1.050289317976261</v>
       </c>
       <c r="J2">
-        <v>0.8505172759191569</v>
+        <v>1.033463867319009</v>
       </c>
       <c r="K2">
-        <v>1.047982825807516</v>
+        <v>1.050732134957655</v>
       </c>
       <c r="L2">
-        <v>0.8628069290175766</v>
+        <v>1.038145709880059</v>
       </c>
       <c r="M2">
-        <v>0.8007389155749174</v>
+        <v>1.050251409453273</v>
       </c>
       <c r="N2">
-        <v>0.8517251080066571</v>
+        <v>1.034931504550573</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8522449237830803</v>
+        <v>1.015641292487037</v>
       </c>
       <c r="D3">
-        <v>1.038724435454634</v>
+        <v>1.042494036976805</v>
       </c>
       <c r="E3">
-        <v>0.8754629390471013</v>
+        <v>1.030290647562227</v>
       </c>
       <c r="F3">
-        <v>0.8225143627199045</v>
+        <v>1.042685345240997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049990288268154</v>
+        <v>1.051304335892573</v>
       </c>
       <c r="J3">
-        <v>0.8777722704907166</v>
+        <v>1.035714455464986</v>
       </c>
       <c r="K3">
-        <v>1.04888469248286</v>
+        <v>1.052610604669415</v>
       </c>
       <c r="L3">
-        <v>0.8879834354825383</v>
+        <v>1.040550085830498</v>
       </c>
       <c r="M3">
-        <v>0.8360667511767617</v>
+        <v>1.052799706092425</v>
       </c>
       <c r="N3">
-        <v>0.8790188077967001</v>
+        <v>1.037185288789854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8693373729004602</v>
+        <v>1.018193096644074</v>
       </c>
       <c r="D4">
-        <v>1.039807736879433</v>
+        <v>1.044208941606994</v>
       </c>
       <c r="E4">
-        <v>0.8902465704005328</v>
+        <v>1.032355221860482</v>
       </c>
       <c r="F4">
-        <v>0.842981922126889</v>
+        <v>1.044833765448577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050183150691575</v>
+        <v>1.051941444614448</v>
       </c>
       <c r="J4">
-        <v>0.8927978325870549</v>
+        <v>1.037142598816629</v>
       </c>
       <c r="K4">
-        <v>1.049448332132398</v>
+        <v>1.053801549247749</v>
       </c>
       <c r="L4">
-        <v>0.9018789010563922</v>
+        <v>1.042078221841511</v>
       </c>
       <c r="M4">
-        <v>0.8554352674505428</v>
+        <v>1.054419600651147</v>
       </c>
       <c r="N4">
-        <v>0.8940657079146714</v>
+        <v>1.038615460268868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8760090274153642</v>
+        <v>1.019255033450949</v>
       </c>
       <c r="D5">
-        <v>1.040257915130859</v>
+        <v>1.044923392269603</v>
       </c>
       <c r="E5">
-        <v>0.8960238881060777</v>
+        <v>1.033215771481465</v>
       </c>
       <c r="F5">
-        <v>0.8509502807883476</v>
+        <v>1.045729254550616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260008368905</v>
+        <v>1.052204657489417</v>
       </c>
       <c r="J5">
-        <v>0.8986595076481365</v>
+        <v>1.037736429025862</v>
       </c>
       <c r="K5">
-        <v>1.049680534409773</v>
+        <v>1.054296473047943</v>
       </c>
       <c r="L5">
-        <v>0.9073021158686171</v>
+        <v>1.042714204107814</v>
       </c>
       <c r="M5">
-        <v>0.8629755145695365</v>
+        <v>1.055093833352394</v>
       </c>
       <c r="N5">
-        <v>0.899935707226683</v>
+        <v>1.039210133785111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8771029473463787</v>
+        <v>1.019432711460725</v>
       </c>
       <c r="D6">
-        <v>1.040333195749658</v>
+        <v>1.045042975423849</v>
       </c>
       <c r="E6">
-        <v>0.896971506798089</v>
+        <v>1.03335983403773</v>
       </c>
       <c r="F6">
-        <v>0.8522558259713839</v>
+        <v>1.045879165551632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05027266572413</v>
+        <v>1.052248583063283</v>
       </c>
       <c r="J6">
-        <v>0.8996204196354852</v>
+        <v>1.037835755926553</v>
       </c>
       <c r="K6">
-        <v>1.04971924407449</v>
+        <v>1.054379239421687</v>
       </c>
       <c r="L6">
-        <v>0.9081912636692479</v>
+        <v>1.042820615274763</v>
       </c>
       <c r="M6">
-        <v>0.8642108758719997</v>
+        <v>1.055206647961191</v>
       </c>
       <c r="N6">
-        <v>0.9008979838192719</v>
+        <v>1.039309601741394</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8694283561071001</v>
+        <v>1.018207328442215</v>
       </c>
       <c r="D7">
-        <v>1.039813772728468</v>
+        <v>1.044218513441058</v>
       </c>
       <c r="E7">
-        <v>0.890325332770503</v>
+        <v>1.032366749345656</v>
       </c>
       <c r="F7">
-        <v>0.8430906611212455</v>
+        <v>1.044845761008025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050184194246958</v>
+        <v>1.051944979753553</v>
       </c>
       <c r="J7">
-        <v>0.8928777833200807</v>
+        <v>1.037150559159138</v>
       </c>
       <c r="K7">
-        <v>1.049451453476574</v>
+        <v>1.053808184867788</v>
       </c>
       <c r="L7">
-        <v>0.9019528630565186</v>
+        <v>1.042086744969493</v>
       </c>
       <c r="M7">
-        <v>0.8555381665859737</v>
+        <v>1.054428636156252</v>
       </c>
       <c r="N7">
-        <v>0.8941457721869087</v>
+        <v>1.038623431915976</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8325038312869482</v>
+        <v>1.012992482406415</v>
       </c>
       <c r="D8">
-        <v>1.037598082249529</v>
+        <v>1.04071683777757</v>
       </c>
       <c r="E8">
-        <v>0.8584240888761869</v>
+        <v>1.028152446406556</v>
       </c>
       <c r="F8">
-        <v>0.7987612055303329</v>
+        <v>1.040460293918727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049778551927297</v>
+        <v>1.050636473025956</v>
       </c>
       <c r="J8">
-        <v>0.8604072540861065</v>
+        <v>1.034230397931147</v>
       </c>
       <c r="K8">
-        <v>1.048291754076944</v>
+        <v>1.051372134934902</v>
       </c>
       <c r="L8">
-        <v>0.871937833422666</v>
+        <v>1.038964113911327</v>
       </c>
       <c r="M8">
-        <v>0.813592328680722</v>
+        <v>1.051118736914404</v>
       </c>
       <c r="N8">
-        <v>0.8616291310770003</v>
+        <v>1.035699123724094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7111867245225982</v>
+        <v>1.003428699008096</v>
       </c>
       <c r="D9">
-        <v>1.033523028001089</v>
+        <v>1.034325766803073</v>
       </c>
       <c r="E9">
-        <v>0.7549096444727437</v>
+        <v>1.020472166014687</v>
       </c>
       <c r="F9">
-        <v>0.6477345735192712</v>
+        <v>1.032468262179171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048928137280377</v>
+        <v>1.048176119626075</v>
       </c>
       <c r="J9">
-        <v>0.7536333359112699</v>
+        <v>1.028860959350457</v>
       </c>
       <c r="K9">
-        <v>1.046094662550544</v>
+        <v>1.046885441957607</v>
       </c>
       <c r="L9">
-        <v>0.7738021096556194</v>
+        <v>1.033241604516782</v>
       </c>
       <c r="M9">
-        <v>0.6712253208434676</v>
+        <v>1.045055646848716</v>
       </c>
       <c r="N9">
-        <v>0.7547035816912157</v>
+        <v>1.030322059924736</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7111867245225982</v>
+        <v>0.9967766877029386</v>
       </c>
       <c r="D10">
-        <v>1.033523028001089</v>
+        <v>1.029905471130879</v>
       </c>
       <c r="E10">
-        <v>0.7549096444727437</v>
+        <v>1.015165853137545</v>
       </c>
       <c r="F10">
-        <v>0.6477345735192712</v>
+        <v>1.026947105062217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048928137280377</v>
+        <v>1.046426188910839</v>
       </c>
       <c r="J10">
-        <v>0.7536333359112699</v>
+        <v>1.025118778482508</v>
       </c>
       <c r="K10">
-        <v>1.046094662550544</v>
+        <v>1.043754980329188</v>
       </c>
       <c r="L10">
-        <v>0.7738021096556194</v>
+        <v>1.029266577972097</v>
       </c>
       <c r="M10">
-        <v>0.6712253208434676</v>
+        <v>1.040846289263632</v>
       </c>
       <c r="N10">
-        <v>0.7547035816912157</v>
+        <v>1.026574564730721</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7111867245225982</v>
+        <v>0.9938249853349937</v>
       </c>
       <c r="D11">
-        <v>1.033523028001089</v>
+        <v>1.027950927678617</v>
       </c>
       <c r="E11">
-        <v>0.7549096444727437</v>
+        <v>1.012820393202756</v>
       </c>
       <c r="F11">
-        <v>0.6477345735192712</v>
+        <v>1.024506910901146</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048928137280377</v>
+        <v>1.045641058973843</v>
       </c>
       <c r="J11">
-        <v>0.7536333359112699</v>
+        <v>1.023456927744028</v>
       </c>
       <c r="K11">
-        <v>1.046094662550544</v>
+        <v>1.042364303223533</v>
       </c>
       <c r="L11">
-        <v>0.7738021096556194</v>
+        <v>1.027504518978226</v>
       </c>
       <c r="M11">
-        <v>0.6712253208434676</v>
+        <v>1.038981002797463</v>
       </c>
       <c r="N11">
-        <v>0.7547035816912157</v>
+        <v>1.024910353973575</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7111867245225982</v>
+        <v>0.992717345673753</v>
       </c>
       <c r="D12">
-        <v>1.033523028001089</v>
+        <v>1.027218594555837</v>
       </c>
       <c r="E12">
-        <v>0.7549096444727437</v>
+        <v>1.01194167695747</v>
       </c>
       <c r="F12">
-        <v>0.6477345735192712</v>
+        <v>1.023592746501888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048928137280377</v>
+        <v>1.04534518566348</v>
       </c>
       <c r="J12">
-        <v>0.7536333359112699</v>
+        <v>1.022833150803075</v>
       </c>
       <c r="K12">
-        <v>1.046094662550544</v>
+        <v>1.041842269686142</v>
       </c>
       <c r="L12">
-        <v>0.7738021096556194</v>
+        <v>1.026843614454819</v>
       </c>
       <c r="M12">
-        <v>0.6712253208434676</v>
+        <v>1.038281487729114</v>
       </c>
       <c r="N12">
-        <v>0.7547035816912157</v>
+        <v>1.024285691197818</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7111867245225982</v>
+        <v>0.9929554558796597</v>
       </c>
       <c r="D13">
-        <v>1.033523028001089</v>
+        <v>1.027375972879381</v>
       </c>
       <c r="E13">
-        <v>0.7549096444727437</v>
+        <v>1.01213050979508</v>
       </c>
       <c r="F13">
-        <v>0.6477345735192712</v>
+        <v>1.023789194892663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048928137280377</v>
+        <v>1.045408845494938</v>
       </c>
       <c r="J13">
-        <v>0.7536333359112699</v>
+        <v>1.022967251215116</v>
       </c>
       <c r="K13">
-        <v>1.046094662550544</v>
+        <v>1.041954498549342</v>
       </c>
       <c r="L13">
-        <v>0.7738021096556194</v>
+        <v>1.02698567456276</v>
       </c>
       <c r="M13">
-        <v>0.6712253208434676</v>
+        <v>1.038431842067509</v>
       </c>
       <c r="N13">
-        <v>0.7547035816912157</v>
+        <v>1.024419982047825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7111867245225982</v>
+        <v>0.9937336600765414</v>
       </c>
       <c r="D14">
-        <v>1.033523028001089</v>
+        <v>1.027890523330353</v>
       </c>
       <c r="E14">
-        <v>0.7549096444727437</v>
+        <v>1.01274791336495</v>
       </c>
       <c r="F14">
-        <v>0.6477345735192712</v>
+        <v>1.024431506224101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048928137280377</v>
+        <v>1.045616689257688</v>
       </c>
       <c r="J14">
-        <v>0.7536333359112699</v>
+        <v>1.023405500145109</v>
       </c>
       <c r="K14">
-        <v>1.046094662550544</v>
+        <v>1.042321264579757</v>
       </c>
       <c r="L14">
-        <v>0.7738021096556194</v>
+        <v>1.027450020467957</v>
       </c>
       <c r="M14">
-        <v>0.6712253208434676</v>
+        <v>1.038923318195179</v>
       </c>
       <c r="N14">
-        <v>0.7547035816912157</v>
+        <v>1.024858853341566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7111867245225982</v>
+        <v>0.9942116308270766</v>
       </c>
       <c r="D15">
-        <v>1.033523028001089</v>
+        <v>1.02820670883966</v>
       </c>
       <c r="E15">
-        <v>0.7549096444727437</v>
+        <v>1.01312731108379</v>
       </c>
       <c r="F15">
-        <v>0.6477345735192712</v>
+        <v>1.02482621593013</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048928137280377</v>
+        <v>1.045744182819544</v>
       </c>
       <c r="J15">
-        <v>0.7536333359112699</v>
+        <v>1.023674651470261</v>
       </c>
       <c r="K15">
-        <v>1.046094662550544</v>
+        <v>1.04254650997425</v>
       </c>
       <c r="L15">
-        <v>0.7738021096556194</v>
+        <v>1.027735263546184</v>
       </c>
       <c r="M15">
-        <v>0.6712253208434676</v>
+        <v>1.039225241603022</v>
       </c>
       <c r="N15">
-        <v>0.7547035816912157</v>
+        <v>1.025128386892472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7111867245225982</v>
+        <v>0.9969710350884893</v>
       </c>
       <c r="D16">
-        <v>1.033523028001089</v>
+        <v>1.030034313702792</v>
       </c>
       <c r="E16">
-        <v>0.7549096444727437</v>
+        <v>1.015320479105504</v>
       </c>
       <c r="F16">
-        <v>0.6477345735192712</v>
+        <v>1.027107982004427</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048928137280377</v>
+        <v>1.046477707656815</v>
       </c>
       <c r="J16">
-        <v>0.7536333359112699</v>
+        <v>1.025228174436783</v>
       </c>
       <c r="K16">
-        <v>1.046094662550544</v>
+        <v>1.043846518026835</v>
       </c>
       <c r="L16">
-        <v>0.7738021096556194</v>
+        <v>1.029382637526324</v>
       </c>
       <c r="M16">
-        <v>0.6712253208434676</v>
+        <v>1.040969162353977</v>
       </c>
       <c r="N16">
-        <v>0.7547035816912157</v>
+        <v>1.026684116039799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7111867245225982</v>
+        <v>0.9986824742253754</v>
       </c>
       <c r="D17">
-        <v>1.033523028001089</v>
+        <v>1.031169706448154</v>
       </c>
       <c r="E17">
-        <v>0.7549096444727437</v>
+        <v>1.016683174535449</v>
       </c>
       <c r="F17">
-        <v>0.6477345735192712</v>
+        <v>1.028525793642748</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048928137280377</v>
+        <v>1.0469304072073</v>
       </c>
       <c r="J17">
-        <v>0.7536333359112699</v>
+        <v>1.026191377327781</v>
       </c>
       <c r="K17">
-        <v>1.046094662550544</v>
+        <v>1.044652432264535</v>
       </c>
       <c r="L17">
-        <v>0.7738021096556194</v>
+        <v>1.030404876571959</v>
       </c>
       <c r="M17">
-        <v>0.6712253208434676</v>
+        <v>1.042051489300943</v>
       </c>
       <c r="N17">
-        <v>0.7547035816912157</v>
+        <v>1.027648686789383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7111867245225982</v>
+        <v>0.9996738819862333</v>
       </c>
       <c r="D18">
-        <v>1.033523028001089</v>
+        <v>1.031828068505319</v>
       </c>
       <c r="E18">
-        <v>0.7549096444727437</v>
+        <v>1.017473423625279</v>
       </c>
       <c r="F18">
-        <v>0.6477345735192712</v>
+        <v>1.029348026779989</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048928137280377</v>
+        <v>1.047191824448915</v>
       </c>
       <c r="J18">
-        <v>0.7536333359112699</v>
+        <v>1.026749215330889</v>
       </c>
       <c r="K18">
-        <v>1.046094662550544</v>
+        <v>1.045119128771712</v>
       </c>
       <c r="L18">
-        <v>0.7738021096556194</v>
+        <v>1.030997208607881</v>
       </c>
       <c r="M18">
-        <v>0.6712253208434676</v>
+        <v>1.042678699902852</v>
       </c>
       <c r="N18">
-        <v>0.7547035816912157</v>
+        <v>1.02820731698644</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7111867245225982</v>
+        <v>1.000010780785632</v>
       </c>
       <c r="D19">
-        <v>1.033523028001089</v>
+        <v>1.032051899657273</v>
       </c>
       <c r="E19">
-        <v>0.7549096444727437</v>
+        <v>1.017742109580258</v>
       </c>
       <c r="F19">
-        <v>0.6477345735192712</v>
+        <v>1.029627590705882</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048928137280377</v>
+        <v>1.04728051774615</v>
       </c>
       <c r="J19">
-        <v>0.7536333359112699</v>
+        <v>1.026938755987569</v>
       </c>
       <c r="K19">
-        <v>1.046094662550544</v>
+        <v>1.045277692595308</v>
       </c>
       <c r="L19">
-        <v>0.7738021096556194</v>
+        <v>1.031198520839943</v>
       </c>
       <c r="M19">
-        <v>0.6712253208434676</v>
+        <v>1.042891876127436</v>
       </c>
       <c r="N19">
-        <v>0.7547035816912157</v>
+        <v>1.028397126812593</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7111867245225982</v>
+        <v>0.9984995648069439</v>
       </c>
       <c r="D20">
-        <v>1.033523028001089</v>
+        <v>1.031048293950787</v>
       </c>
       <c r="E20">
-        <v>0.7549096444727437</v>
+        <v>1.016537447092806</v>
       </c>
       <c r="F20">
-        <v>0.6477345735192712</v>
+        <v>1.028374169772629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048928137280377</v>
+        <v>1.046882110233467</v>
       </c>
       <c r="J20">
-        <v>0.7536333359112699</v>
+        <v>1.02608844849319</v>
       </c>
       <c r="K20">
-        <v>1.046094662550544</v>
+        <v>1.044566316210514</v>
       </c>
       <c r="L20">
-        <v>0.7738021096556194</v>
+        <v>1.030295607577542</v>
       </c>
       <c r="M20">
-        <v>0.6712253208434676</v>
+        <v>1.041935791015557</v>
       </c>
       <c r="N20">
-        <v>0.7547035816912157</v>
+        <v>1.02754561178404</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7111867245225982</v>
+        <v>0.9935048131839265</v>
       </c>
       <c r="D21">
-        <v>1.033523028001089</v>
+        <v>1.027739177742314</v>
       </c>
       <c r="E21">
-        <v>0.7549096444727437</v>
+        <v>1.01256631338497</v>
       </c>
       <c r="F21">
-        <v>0.6477345735192712</v>
+        <v>1.02424257872381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048928137280377</v>
+        <v>1.045555602563443</v>
       </c>
       <c r="J21">
-        <v>0.7536333359112699</v>
+        <v>1.02327662814241</v>
       </c>
       <c r="K21">
-        <v>1.046094662550544</v>
+        <v>1.042213413823975</v>
       </c>
       <c r="L21">
-        <v>0.7738021096556194</v>
+        <v>1.02731346093926</v>
       </c>
       <c r="M21">
-        <v>0.6712253208434676</v>
+        <v>1.03877877689162</v>
       </c>
       <c r="N21">
-        <v>0.7547035816912157</v>
+        <v>1.024729798325842</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7111867245225982</v>
+        <v>0.9902990636309001</v>
       </c>
       <c r="D22">
-        <v>1.033523028001089</v>
+        <v>1.025621860960087</v>
       </c>
       <c r="E22">
-        <v>0.7549096444727437</v>
+        <v>1.010025889137982</v>
       </c>
       <c r="F22">
-        <v>0.6477345735192712</v>
+        <v>1.021599764730113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048928137280377</v>
+        <v>1.044696969754479</v>
       </c>
       <c r="J22">
-        <v>0.7536333359112699</v>
+        <v>1.021471025507109</v>
       </c>
       <c r="K22">
-        <v>1.046094662550544</v>
+        <v>1.040702276682452</v>
       </c>
       <c r="L22">
-        <v>0.7738021096556194</v>
+        <v>1.025401313743971</v>
       </c>
       <c r="M22">
-        <v>0.6712253208434676</v>
+        <v>1.036755135972286</v>
       </c>
       <c r="N22">
-        <v>0.7547035816912157</v>
+        <v>1.022921631527694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7111867245225982</v>
+        <v>0.9920048714849732</v>
       </c>
       <c r="D23">
-        <v>1.033523028001089</v>
+        <v>1.02674785713186</v>
       </c>
       <c r="E23">
-        <v>0.7549096444727437</v>
+        <v>1.011376864618155</v>
       </c>
       <c r="F23">
-        <v>0.6477345735192712</v>
+        <v>1.023005162622666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048928137280377</v>
+        <v>1.045154523079042</v>
       </c>
       <c r="J23">
-        <v>0.7536333359112699</v>
+        <v>1.022431874791682</v>
       </c>
       <c r="K23">
-        <v>1.046094662550544</v>
+        <v>1.041506437397049</v>
       </c>
       <c r="L23">
-        <v>0.7738021096556194</v>
+        <v>1.026418591832229</v>
       </c>
       <c r="M23">
-        <v>0.6712253208434676</v>
+        <v>1.037831666577737</v>
       </c>
       <c r="N23">
-        <v>0.7547035816912157</v>
+        <v>1.023883845328461</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7111867245225982</v>
+        <v>0.998582234817179</v>
       </c>
       <c r="D24">
-        <v>1.033523028001089</v>
+        <v>1.031103167046922</v>
       </c>
       <c r="E24">
-        <v>0.7549096444727437</v>
+        <v>1.016603309206756</v>
       </c>
       <c r="F24">
-        <v>0.6477345735192712</v>
+        <v>1.028442696735905</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048928137280377</v>
+        <v>1.04690394169023</v>
       </c>
       <c r="J24">
-        <v>0.7536333359112699</v>
+        <v>1.026134969889663</v>
       </c>
       <c r="K24">
-        <v>1.046094662550544</v>
+        <v>1.044605238779075</v>
       </c>
       <c r="L24">
-        <v>0.7738021096556194</v>
+        <v>1.030344993636473</v>
       </c>
       <c r="M24">
-        <v>0.6712253208434676</v>
+        <v>1.041988082718593</v>
       </c>
       <c r="N24">
-        <v>0.7547035816912157</v>
+        <v>1.027592199246233</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7111867245225982</v>
+        <v>1.005947974198638</v>
       </c>
       <c r="D25">
-        <v>1.033523028001089</v>
+        <v>1.03600528234735</v>
       </c>
       <c r="E25">
-        <v>0.7549096444727437</v>
+        <v>1.022489341484774</v>
       </c>
       <c r="F25">
-        <v>0.6477345735192712</v>
+        <v>1.034567254314822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048928137280377</v>
+        <v>1.04883107333121</v>
       </c>
       <c r="J25">
-        <v>0.7536333359112699</v>
+        <v>1.030276810053962</v>
       </c>
       <c r="K25">
-        <v>1.046094662550544</v>
+        <v>1.048069240156472</v>
       </c>
       <c r="L25">
-        <v>0.7738021096556194</v>
+        <v>1.034748289810104</v>
       </c>
       <c r="M25">
-        <v>0.6712253208434676</v>
+        <v>1.046651651704345</v>
       </c>
       <c r="N25">
-        <v>0.7547035816912157</v>
+        <v>1.03173992129864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011625395771131</v>
+        <v>1.039015814634125</v>
       </c>
       <c r="D2">
-        <v>1.039800779675963</v>
+        <v>1.050676651512808</v>
       </c>
       <c r="E2">
-        <v>1.027050798574424</v>
+        <v>1.047706388479669</v>
       </c>
       <c r="F2">
-        <v>1.0393139005027</v>
+        <v>1.058835101642867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050289317976261</v>
+        <v>1.041474213513059</v>
       </c>
       <c r="J2">
-        <v>1.033463867319009</v>
+        <v>1.04411011898795</v>
       </c>
       <c r="K2">
-        <v>1.050732134957655</v>
+        <v>1.053430266320456</v>
       </c>
       <c r="L2">
-        <v>1.038145709880059</v>
+        <v>1.050468276395659</v>
       </c>
       <c r="M2">
-        <v>1.050251409453273</v>
+        <v>1.06156625132039</v>
       </c>
       <c r="N2">
-        <v>1.034931504550573</v>
+        <v>1.045592875118017</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015641292487037</v>
+        <v>1.03987993895287</v>
       </c>
       <c r="D3">
-        <v>1.042494036976805</v>
+        <v>1.05127458493067</v>
       </c>
       <c r="E3">
-        <v>1.030290647562227</v>
+        <v>1.048453102368312</v>
       </c>
       <c r="F3">
-        <v>1.042685345240997</v>
+        <v>1.05961274713781</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051304335892573</v>
+        <v>1.041646872184187</v>
       </c>
       <c r="J3">
-        <v>1.035714455464986</v>
+        <v>1.044619702400602</v>
       </c>
       <c r="K3">
-        <v>1.052610604669415</v>
+        <v>1.053841246732026</v>
       </c>
       <c r="L3">
-        <v>1.040550085830498</v>
+        <v>1.051027057440351</v>
       </c>
       <c r="M3">
-        <v>1.052799706092425</v>
+        <v>1.062158100284983</v>
       </c>
       <c r="N3">
-        <v>1.037185288789854</v>
+        <v>1.046103182197565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018193096644074</v>
+        <v>1.040439834849875</v>
       </c>
       <c r="D4">
-        <v>1.044208941606994</v>
+        <v>1.051662024963069</v>
       </c>
       <c r="E4">
-        <v>1.032355221860482</v>
+        <v>1.048937303034602</v>
       </c>
       <c r="F4">
-        <v>1.044833765448577</v>
+        <v>1.060116980632773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051941444614448</v>
+        <v>1.041757730985709</v>
       </c>
       <c r="J4">
-        <v>1.037142598816629</v>
+        <v>1.044949526346278</v>
       </c>
       <c r="K4">
-        <v>1.053801549247749</v>
+        <v>1.05410701673769</v>
       </c>
       <c r="L4">
-        <v>1.042078221841511</v>
+        <v>1.051388984944139</v>
       </c>
       <c r="M4">
-        <v>1.054419600651147</v>
+        <v>1.062541447857345</v>
       </c>
       <c r="N4">
-        <v>1.038615460268868</v>
+        <v>1.046433474531076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019255033450949</v>
+        <v>1.040675392926385</v>
       </c>
       <c r="D5">
-        <v>1.044923392269603</v>
+        <v>1.051825031442816</v>
       </c>
       <c r="E5">
-        <v>1.033215771481465</v>
+        <v>1.049141104935585</v>
       </c>
       <c r="F5">
-        <v>1.045729254550616</v>
+        <v>1.06032920849636</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052204657489417</v>
+        <v>1.041804128711337</v>
       </c>
       <c r="J5">
-        <v>1.037736429025862</v>
+        <v>1.045088204424576</v>
       </c>
       <c r="K5">
-        <v>1.054296473047943</v>
+        <v>1.054218706341968</v>
       </c>
       <c r="L5">
-        <v>1.042714204107814</v>
+        <v>1.05154122368849</v>
       </c>
       <c r="M5">
-        <v>1.055093833352394</v>
+        <v>1.062702696906397</v>
       </c>
       <c r="N5">
-        <v>1.039210133785111</v>
+        <v>1.046572349548151</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019432711460725</v>
+        <v>1.040714954545236</v>
       </c>
       <c r="D6">
-        <v>1.045042975423849</v>
+        <v>1.051852408321907</v>
       </c>
       <c r="E6">
-        <v>1.03335983403773</v>
+        <v>1.049175338421403</v>
       </c>
       <c r="F6">
-        <v>1.045879165551632</v>
+        <v>1.060364856978024</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052248583063283</v>
+        <v>1.041811906915311</v>
       </c>
       <c r="J6">
-        <v>1.037835755926553</v>
+        <v>1.045111490224193</v>
       </c>
       <c r="K6">
-        <v>1.054379239421687</v>
+        <v>1.054237457126284</v>
       </c>
       <c r="L6">
-        <v>1.042820615274763</v>
+        <v>1.051566790151151</v>
       </c>
       <c r="M6">
-        <v>1.055206647961191</v>
+        <v>1.062729776544948</v>
       </c>
       <c r="N6">
-        <v>1.039309601741394</v>
+        <v>1.046595668416275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018207328442215</v>
+        <v>1.040442981691666</v>
       </c>
       <c r="D7">
-        <v>1.044218513441058</v>
+        <v>1.051664202568216</v>
       </c>
       <c r="E7">
-        <v>1.032366749345656</v>
+        <v>1.048940025289431</v>
       </c>
       <c r="F7">
-        <v>1.044845761008025</v>
+        <v>1.060119815459565</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051944979753553</v>
+        <v>1.041758351769908</v>
       </c>
       <c r="J7">
-        <v>1.037150559159138</v>
+        <v>1.044951379292245</v>
       </c>
       <c r="K7">
-        <v>1.053808184867788</v>
+        <v>1.05410850929896</v>
       </c>
       <c r="L7">
-        <v>1.042086744969493</v>
+        <v>1.051391018835825</v>
       </c>
       <c r="M7">
-        <v>1.054428636156252</v>
+        <v>1.062543602124531</v>
       </c>
       <c r="N7">
-        <v>1.038623431915976</v>
+        <v>1.046435330108438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012992482406415</v>
+        <v>1.039307693283767</v>
       </c>
       <c r="D8">
-        <v>1.04071683777757</v>
+        <v>1.050878613553734</v>
       </c>
       <c r="E8">
-        <v>1.028152446406556</v>
+        <v>1.047958530183186</v>
       </c>
       <c r="F8">
-        <v>1.040460293918727</v>
+        <v>1.059097693007857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050636473025956</v>
+        <v>1.041532742547837</v>
       </c>
       <c r="J8">
-        <v>1.034230397931147</v>
+        <v>1.044282315787802</v>
       </c>
       <c r="K8">
-        <v>1.051372134934902</v>
+        <v>1.053569191753245</v>
       </c>
       <c r="L8">
-        <v>1.038964113911327</v>
+        <v>1.050657043885648</v>
       </c>
       <c r="M8">
-        <v>1.051118736914404</v>
+        <v>1.061766189417765</v>
       </c>
       <c r="N8">
-        <v>1.035699123724094</v>
+        <v>1.045765316457077</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003428699008096</v>
+        <v>1.037312984092351</v>
       </c>
       <c r="D9">
-        <v>1.034325766803073</v>
+        <v>1.049498503042486</v>
       </c>
       <c r="E9">
-        <v>1.020472166014687</v>
+        <v>1.04623695837556</v>
       </c>
       <c r="F9">
-        <v>1.032468262179171</v>
+        <v>1.057304675225325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048176119626075</v>
+        <v>1.041128613965311</v>
       </c>
       <c r="J9">
-        <v>1.028860959350457</v>
+        <v>1.043104083169851</v>
       </c>
       <c r="K9">
-        <v>1.046885441957607</v>
+        <v>1.052617666721462</v>
       </c>
       <c r="L9">
-        <v>1.033241604516782</v>
+        <v>1.049366499560059</v>
       </c>
       <c r="M9">
-        <v>1.045055646848716</v>
+        <v>1.060399285550782</v>
       </c>
       <c r="N9">
-        <v>1.030322059924736</v>
+        <v>1.044585410613663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9967766877029386</v>
+        <v>1.035987184431184</v>
       </c>
       <c r="D10">
-        <v>1.029905471130879</v>
+        <v>1.048581365186581</v>
       </c>
       <c r="E10">
-        <v>1.015165853137545</v>
+        <v>1.045094700457768</v>
       </c>
       <c r="F10">
-        <v>1.026947105062217</v>
+        <v>1.056114892918572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046426188910839</v>
+        <v>1.040854817290938</v>
       </c>
       <c r="J10">
-        <v>1.025118778482508</v>
+        <v>1.04231917245213</v>
       </c>
       <c r="K10">
-        <v>1.043754980329188</v>
+        <v>1.051982606176102</v>
       </c>
       <c r="L10">
-        <v>1.029266577972097</v>
+        <v>1.048508116370531</v>
       </c>
       <c r="M10">
-        <v>1.040846289263632</v>
+        <v>1.059490129921601</v>
       </c>
       <c r="N10">
-        <v>1.026574564730721</v>
+        <v>1.043799385232692</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9938249853349937</v>
+        <v>1.035414069319703</v>
       </c>
       <c r="D11">
-        <v>1.027950927678617</v>
+        <v>1.048184954770764</v>
       </c>
       <c r="E11">
-        <v>1.012820393202756</v>
+        <v>1.044601408293012</v>
       </c>
       <c r="F11">
-        <v>1.024506910901146</v>
+        <v>1.055601049301829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045641058973843</v>
+        <v>1.04073523127238</v>
       </c>
       <c r="J11">
-        <v>1.023456927744028</v>
+        <v>1.041979450994857</v>
       </c>
       <c r="K11">
-        <v>1.042364303223533</v>
+        <v>1.051707466759326</v>
       </c>
       <c r="L11">
-        <v>1.027504518978226</v>
+        <v>1.048136915171094</v>
       </c>
       <c r="M11">
-        <v>1.038981002797463</v>
+        <v>1.059096977732995</v>
       </c>
       <c r="N11">
-        <v>1.024910353973575</v>
+        <v>1.043459181331983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.992717345673753</v>
+        <v>1.035201335458307</v>
       </c>
       <c r="D12">
-        <v>1.027218594555837</v>
+        <v>1.048037819871397</v>
       </c>
       <c r="E12">
-        <v>1.01194167695747</v>
+        <v>1.044418376833388</v>
       </c>
       <c r="F12">
-        <v>1.023592746501888</v>
+        <v>1.05541038832099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04534518566348</v>
+        <v>1.040690657653626</v>
       </c>
       <c r="J12">
-        <v>1.022833150803075</v>
+        <v>1.041853287195363</v>
       </c>
       <c r="K12">
-        <v>1.041842269686142</v>
+        <v>1.051605245991994</v>
       </c>
       <c r="L12">
-        <v>1.026843614454819</v>
+        <v>1.047999108799537</v>
       </c>
       <c r="M12">
-        <v>1.038281487729114</v>
+        <v>1.058951023053354</v>
       </c>
       <c r="N12">
-        <v>1.024285691197818</v>
+        <v>1.043332838365423</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929554558796597</v>
+        <v>1.035246960932897</v>
       </c>
       <c r="D13">
-        <v>1.027375972879381</v>
+        <v>1.048069375816667</v>
       </c>
       <c r="E13">
-        <v>1.01213050979508</v>
+        <v>1.044457628656749</v>
       </c>
       <c r="F13">
-        <v>1.023789194892663</v>
+        <v>1.055451276509812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045408845494938</v>
+        <v>1.040700225805259</v>
       </c>
       <c r="J13">
-        <v>1.022967251215116</v>
+        <v>1.041880348656826</v>
       </c>
       <c r="K13">
-        <v>1.041954498549342</v>
+        <v>1.051627173654764</v>
       </c>
       <c r="L13">
-        <v>1.02698567456276</v>
+        <v>1.04802866534842</v>
       </c>
       <c r="M13">
-        <v>1.038431842067509</v>
+        <v>1.058982327200661</v>
       </c>
       <c r="N13">
-        <v>1.024419982047825</v>
+        <v>1.043359938257265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937336600765414</v>
+        <v>1.035396481672049</v>
       </c>
       <c r="D14">
-        <v>1.027890523330353</v>
+        <v>1.048172790307385</v>
       </c>
       <c r="E14">
-        <v>1.01274791336495</v>
+        <v>1.044586274780323</v>
       </c>
       <c r="F14">
-        <v>1.024431506224101</v>
+        <v>1.055585285043879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045616689257688</v>
+        <v>1.040731549941392</v>
       </c>
       <c r="J14">
-        <v>1.023405500145109</v>
+        <v>1.041969021761077</v>
       </c>
       <c r="K14">
-        <v>1.042321264579757</v>
+        <v>1.051699017594148</v>
       </c>
       <c r="L14">
-        <v>1.027450020467957</v>
+        <v>1.048125522529389</v>
       </c>
       <c r="M14">
-        <v>1.038923318195179</v>
+        <v>1.059084911441086</v>
       </c>
       <c r="N14">
-        <v>1.024858853341566</v>
+        <v>1.043448737287494</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942116308270766</v>
+        <v>1.035488625810642</v>
       </c>
       <c r="D15">
-        <v>1.02820670883966</v>
+        <v>1.048236521967069</v>
       </c>
       <c r="E15">
-        <v>1.01312731108379</v>
+        <v>1.044665564358821</v>
       </c>
       <c r="F15">
-        <v>1.02482621593013</v>
+        <v>1.055667879142149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045744182819544</v>
+        <v>1.04075082938485</v>
       </c>
       <c r="J15">
-        <v>1.023674651470261</v>
+        <v>1.042023659390779</v>
       </c>
       <c r="K15">
-        <v>1.04254650997425</v>
+        <v>1.051743280177825</v>
       </c>
       <c r="L15">
-        <v>1.027735263546184</v>
+        <v>1.048185209323416</v>
       </c>
       <c r="M15">
-        <v>1.039225241603022</v>
+        <v>1.059148127568919</v>
       </c>
       <c r="N15">
-        <v>1.025128386892472</v>
+        <v>1.043503452508898</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969710350884893</v>
+        <v>1.036025240663078</v>
       </c>
       <c r="D16">
-        <v>1.030034313702792</v>
+        <v>1.04860768889985</v>
       </c>
       <c r="E16">
-        <v>1.015320479105504</v>
+        <v>1.045127466464503</v>
       </c>
       <c r="F16">
-        <v>1.027107982004427</v>
+        <v>1.056149023438233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046477707656815</v>
+        <v>1.040862732177774</v>
       </c>
       <c r="J16">
-        <v>1.025228174436783</v>
+        <v>1.042341721921618</v>
       </c>
       <c r="K16">
-        <v>1.043846518026835</v>
+        <v>1.052000863147835</v>
       </c>
       <c r="L16">
-        <v>1.029382637526324</v>
+        <v>1.048532762105813</v>
       </c>
       <c r="M16">
-        <v>1.040969162353977</v>
+        <v>1.059516233200081</v>
       </c>
       <c r="N16">
-        <v>1.026684116039799</v>
+        <v>1.043821966725013</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986824742253754</v>
+        <v>1.036362104471371</v>
       </c>
       <c r="D17">
-        <v>1.031169706448154</v>
+        <v>1.048840705276168</v>
       </c>
       <c r="E17">
-        <v>1.016683174535449</v>
+        <v>1.045417558365396</v>
       </c>
       <c r="F17">
-        <v>1.028525793642748</v>
+        <v>1.056451192776492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0469304072073</v>
+        <v>1.040932650535282</v>
       </c>
       <c r="J17">
-        <v>1.026191377327781</v>
+        <v>1.04254127525931</v>
       </c>
       <c r="K17">
-        <v>1.044652432264535</v>
+        <v>1.052162397896107</v>
       </c>
       <c r="L17">
-        <v>1.030404876571959</v>
+        <v>1.048750903532632</v>
       </c>
       <c r="M17">
-        <v>1.042051489300943</v>
+        <v>1.059747276070455</v>
       </c>
       <c r="N17">
-        <v>1.027648686789383</v>
+        <v>1.044021803451334</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9996738819862333</v>
+        <v>1.036558684418867</v>
       </c>
       <c r="D18">
-        <v>1.031828068505319</v>
+        <v>1.048976688770232</v>
       </c>
       <c r="E18">
-        <v>1.017473423625279</v>
+        <v>1.045586890623412</v>
       </c>
       <c r="F18">
-        <v>1.029348026779989</v>
+        <v>1.056627572186372</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047191824448915</v>
+        <v>1.040973333276432</v>
       </c>
       <c r="J18">
-        <v>1.026749215330889</v>
+        <v>1.042657685734651</v>
       </c>
       <c r="K18">
-        <v>1.045119128771712</v>
+        <v>1.052256603428209</v>
       </c>
       <c r="L18">
-        <v>1.030997208607881</v>
+        <v>1.048878188371345</v>
       </c>
       <c r="M18">
-        <v>1.042678699902852</v>
+        <v>1.059882089352818</v>
       </c>
       <c r="N18">
-        <v>1.02820731698644</v>
+        <v>1.044138379242903</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000010780785632</v>
+        <v>1.036625728823177</v>
       </c>
       <c r="D19">
-        <v>1.032051899657273</v>
+        <v>1.049023067268821</v>
       </c>
       <c r="E19">
-        <v>1.017742109580258</v>
+        <v>1.045644649955126</v>
       </c>
       <c r="F19">
-        <v>1.029627590705882</v>
+        <v>1.056687734848731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04728051774615</v>
+        <v>1.040987188148337</v>
       </c>
       <c r="J19">
-        <v>1.026938755987569</v>
+        <v>1.042697381098692</v>
       </c>
       <c r="K19">
-        <v>1.045277692595308</v>
+        <v>1.05228872250114</v>
       </c>
       <c r="L19">
-        <v>1.031198520839943</v>
+        <v>1.048921597076251</v>
       </c>
       <c r="M19">
-        <v>1.042891876127436</v>
+        <v>1.059928065608005</v>
       </c>
       <c r="N19">
-        <v>1.028397126812593</v>
+        <v>1.044178130978914</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984995648069439</v>
+        <v>1.036325952542797</v>
       </c>
       <c r="D20">
-        <v>1.031048293950787</v>
+        <v>1.048815697674757</v>
       </c>
       <c r="E20">
-        <v>1.016537447092806</v>
+        <v>1.045386421145104</v>
       </c>
       <c r="F20">
-        <v>1.028374169772629</v>
+        <v>1.056418759492746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046882110233467</v>
+        <v>1.040925159238892</v>
       </c>
       <c r="J20">
-        <v>1.02608844849319</v>
+        <v>1.042519863576743</v>
       </c>
       <c r="K20">
-        <v>1.044566316210514</v>
+        <v>1.052145068282987</v>
       </c>
       <c r="L20">
-        <v>1.030295607577542</v>
+        <v>1.048727494187438</v>
       </c>
       <c r="M20">
-        <v>1.041935791015557</v>
+        <v>1.059722482184967</v>
       </c>
       <c r="N20">
-        <v>1.02754561178404</v>
+        <v>1.044000361361722</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935048131839265</v>
+        <v>1.035352447480718</v>
       </c>
       <c r="D21">
-        <v>1.027739177742314</v>
+        <v>1.04814233427677</v>
       </c>
       <c r="E21">
-        <v>1.01256631338497</v>
+        <v>1.044548386188467</v>
       </c>
       <c r="F21">
-        <v>1.02424257872381</v>
+        <v>1.055545817238491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045555602563443</v>
+        <v>1.040722330010557</v>
       </c>
       <c r="J21">
-        <v>1.02327662814241</v>
+        <v>1.041942909072215</v>
       </c>
       <c r="K21">
-        <v>1.042213413823975</v>
+        <v>1.051677861933475</v>
       </c>
       <c r="L21">
-        <v>1.02731346093926</v>
+        <v>1.048096998441048</v>
       </c>
       <c r="M21">
-        <v>1.03877877689162</v>
+        <v>1.059054700729597</v>
       </c>
       <c r="N21">
-        <v>1.024729798325842</v>
+        <v>1.043422587515619</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9902990636309001</v>
+        <v>1.034741215261692</v>
       </c>
       <c r="D22">
-        <v>1.025621860960087</v>
+        <v>1.047719598941383</v>
       </c>
       <c r="E22">
-        <v>1.010025889137982</v>
+        <v>1.044022633902351</v>
       </c>
       <c r="F22">
-        <v>1.021599764730113</v>
+        <v>1.054998141744917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044696969754479</v>
+        <v>1.040593912322523</v>
       </c>
       <c r="J22">
-        <v>1.021471025507109</v>
+        <v>1.041580293673363</v>
       </c>
       <c r="K22">
-        <v>1.040702276682452</v>
+        <v>1.051383985685175</v>
       </c>
       <c r="L22">
-        <v>1.025401313743971</v>
+        <v>1.047701011257956</v>
       </c>
       <c r="M22">
-        <v>1.036755135972286</v>
+        <v>1.058635301104669</v>
       </c>
       <c r="N22">
-        <v>1.022921631527694</v>
+        <v>1.043059457161309</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9920048714849732</v>
+        <v>1.035065159995107</v>
       </c>
       <c r="D23">
-        <v>1.02674785713186</v>
+        <v>1.047943638101192</v>
       </c>
       <c r="E23">
-        <v>1.011376864618155</v>
+        <v>1.044301235144904</v>
       </c>
       <c r="F23">
-        <v>1.023005162622666</v>
+        <v>1.05528836252929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045154523079042</v>
+        <v>1.040662073169441</v>
       </c>
       <c r="J23">
-        <v>1.022431874791682</v>
+        <v>1.041772509356325</v>
       </c>
       <c r="K23">
-        <v>1.041506437397049</v>
+        <v>1.051539786432704</v>
       </c>
       <c r="L23">
-        <v>1.026418591832229</v>
+        <v>1.047910890244518</v>
       </c>
       <c r="M23">
-        <v>1.037831666577737</v>
+        <v>1.058857588510384</v>
       </c>
       <c r="N23">
-        <v>1.023883845328461</v>
+        <v>1.043251945812589</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.998582234817179</v>
+        <v>1.036342287756059</v>
       </c>
       <c r="D24">
-        <v>1.031103167046922</v>
+        <v>1.048826997320507</v>
       </c>
       <c r="E24">
-        <v>1.016603309206756</v>
+        <v>1.045400490323873</v>
       </c>
       <c r="F24">
-        <v>1.028442696735905</v>
+        <v>1.056433414298831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04690394169023</v>
+        <v>1.040928544540661</v>
       </c>
       <c r="J24">
-        <v>1.026134969889663</v>
+        <v>1.042529538550145</v>
       </c>
       <c r="K24">
-        <v>1.044605238779075</v>
+        <v>1.052152898835598</v>
       </c>
       <c r="L24">
-        <v>1.030344993636473</v>
+        <v>1.048738071718986</v>
       </c>
       <c r="M24">
-        <v>1.041988082718593</v>
+        <v>1.059733685320662</v>
       </c>
       <c r="N24">
-        <v>1.027592199246233</v>
+        <v>1.044010050074696</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005947974198638</v>
+        <v>1.03782796521437</v>
       </c>
       <c r="D25">
-        <v>1.03600528234735</v>
+        <v>1.049854785531768</v>
       </c>
       <c r="E25">
-        <v>1.022489341484774</v>
+        <v>1.046681072445271</v>
       </c>
       <c r="F25">
-        <v>1.034567254314822</v>
+        <v>1.057767241723818</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04883107333121</v>
+        <v>1.041233865698154</v>
       </c>
       <c r="J25">
-        <v>1.030276810053962</v>
+        <v>1.043408588457372</v>
       </c>
       <c r="K25">
-        <v>1.048069240156472</v>
+        <v>1.052863789978759</v>
       </c>
       <c r="L25">
-        <v>1.034748289810104</v>
+        <v>1.04969979372343</v>
       </c>
       <c r="M25">
-        <v>1.046651651704345</v>
+        <v>1.060752297659661</v>
       </c>
       <c r="N25">
-        <v>1.03173992129864</v>
+        <v>1.04489034833362</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039015814634125</v>
+        <v>1.011625395771131</v>
       </c>
       <c r="D2">
-        <v>1.050676651512808</v>
+        <v>1.039800779675963</v>
       </c>
       <c r="E2">
-        <v>1.047706388479669</v>
+        <v>1.027050798574423</v>
       </c>
       <c r="F2">
-        <v>1.058835101642867</v>
+        <v>1.0393139005027</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041474213513059</v>
+        <v>1.050289317976261</v>
       </c>
       <c r="J2">
-        <v>1.04411011898795</v>
+        <v>1.033463867319008</v>
       </c>
       <c r="K2">
-        <v>1.053430266320456</v>
+        <v>1.050732134957654</v>
       </c>
       <c r="L2">
-        <v>1.050468276395659</v>
+        <v>1.038145709880058</v>
       </c>
       <c r="M2">
-        <v>1.06156625132039</v>
+        <v>1.050251409453273</v>
       </c>
       <c r="N2">
-        <v>1.045592875118017</v>
+        <v>1.034931504550572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03987993895287</v>
+        <v>1.015641292487037</v>
       </c>
       <c r="D3">
-        <v>1.05127458493067</v>
+        <v>1.042494036976806</v>
       </c>
       <c r="E3">
-        <v>1.048453102368312</v>
+        <v>1.030290647562226</v>
       </c>
       <c r="F3">
-        <v>1.05961274713781</v>
+        <v>1.042685345240998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041646872184187</v>
+        <v>1.051304335892573</v>
       </c>
       <c r="J3">
-        <v>1.044619702400602</v>
+        <v>1.035714455464985</v>
       </c>
       <c r="K3">
-        <v>1.053841246732026</v>
+        <v>1.052610604669416</v>
       </c>
       <c r="L3">
-        <v>1.051027057440351</v>
+        <v>1.040550085830497</v>
       </c>
       <c r="M3">
-        <v>1.062158100284983</v>
+        <v>1.052799706092425</v>
       </c>
       <c r="N3">
-        <v>1.046103182197565</v>
+        <v>1.037185288789854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040439834849875</v>
+        <v>1.018193096644073</v>
       </c>
       <c r="D4">
-        <v>1.051662024963069</v>
+        <v>1.044208941606994</v>
       </c>
       <c r="E4">
-        <v>1.048937303034602</v>
+        <v>1.032355221860481</v>
       </c>
       <c r="F4">
-        <v>1.060116980632773</v>
+        <v>1.044833765448577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041757730985709</v>
+        <v>1.051941444614447</v>
       </c>
       <c r="J4">
-        <v>1.044949526346278</v>
+        <v>1.037142598816629</v>
       </c>
       <c r="K4">
-        <v>1.05410701673769</v>
+        <v>1.053801549247748</v>
       </c>
       <c r="L4">
-        <v>1.051388984944139</v>
+        <v>1.042078221841511</v>
       </c>
       <c r="M4">
-        <v>1.062541447857345</v>
+        <v>1.054419600651146</v>
       </c>
       <c r="N4">
-        <v>1.046433474531076</v>
+        <v>1.038615460268867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040675392926385</v>
+        <v>1.019255033450948</v>
       </c>
       <c r="D5">
-        <v>1.051825031442816</v>
+        <v>1.044923392269602</v>
       </c>
       <c r="E5">
-        <v>1.049141104935585</v>
+        <v>1.033215771481464</v>
       </c>
       <c r="F5">
-        <v>1.06032920849636</v>
+        <v>1.045729254550615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041804128711337</v>
+        <v>1.052204657489417</v>
       </c>
       <c r="J5">
-        <v>1.045088204424576</v>
+        <v>1.037736429025862</v>
       </c>
       <c r="K5">
-        <v>1.054218706341968</v>
+        <v>1.054296473047942</v>
       </c>
       <c r="L5">
-        <v>1.05154122368849</v>
+        <v>1.042714204107813</v>
       </c>
       <c r="M5">
-        <v>1.062702696906397</v>
+        <v>1.055093833352393</v>
       </c>
       <c r="N5">
-        <v>1.046572349548151</v>
+        <v>1.039210133785111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040714954545236</v>
+        <v>1.019432711460725</v>
       </c>
       <c r="D6">
-        <v>1.051852408321907</v>
+        <v>1.045042975423849</v>
       </c>
       <c r="E6">
-        <v>1.049175338421403</v>
+        <v>1.03335983403773</v>
       </c>
       <c r="F6">
-        <v>1.060364856978024</v>
+        <v>1.045879165551633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041811906915311</v>
+        <v>1.052248583063284</v>
       </c>
       <c r="J6">
-        <v>1.045111490224193</v>
+        <v>1.037835755926553</v>
       </c>
       <c r="K6">
-        <v>1.054237457126284</v>
+        <v>1.054379239421688</v>
       </c>
       <c r="L6">
-        <v>1.051566790151151</v>
+        <v>1.042820615274764</v>
       </c>
       <c r="M6">
-        <v>1.062729776544948</v>
+        <v>1.055206647961192</v>
       </c>
       <c r="N6">
-        <v>1.046595668416275</v>
+        <v>1.039309601741394</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040442981691666</v>
+        <v>1.018207328442214</v>
       </c>
       <c r="D7">
-        <v>1.051664202568216</v>
+        <v>1.044218513441057</v>
       </c>
       <c r="E7">
-        <v>1.048940025289431</v>
+        <v>1.032366749345655</v>
       </c>
       <c r="F7">
-        <v>1.060119815459565</v>
+        <v>1.044845761008024</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041758351769908</v>
+        <v>1.051944979753553</v>
       </c>
       <c r="J7">
-        <v>1.044951379292245</v>
+        <v>1.037150559159137</v>
       </c>
       <c r="K7">
-        <v>1.05410850929896</v>
+        <v>1.053808184867788</v>
       </c>
       <c r="L7">
-        <v>1.051391018835825</v>
+        <v>1.042086744969491</v>
       </c>
       <c r="M7">
-        <v>1.062543602124531</v>
+        <v>1.054428636156251</v>
       </c>
       <c r="N7">
-        <v>1.046435330108438</v>
+        <v>1.038623431915975</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039307693283767</v>
+        <v>1.012992482406415</v>
       </c>
       <c r="D8">
-        <v>1.050878613553734</v>
+        <v>1.040716837777569</v>
       </c>
       <c r="E8">
-        <v>1.047958530183186</v>
+        <v>1.028152446406556</v>
       </c>
       <c r="F8">
-        <v>1.059097693007857</v>
+        <v>1.040460293918727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041532742547837</v>
+        <v>1.050636473025956</v>
       </c>
       <c r="J8">
-        <v>1.044282315787802</v>
+        <v>1.034230397931147</v>
       </c>
       <c r="K8">
-        <v>1.053569191753245</v>
+        <v>1.051372134934902</v>
       </c>
       <c r="L8">
-        <v>1.050657043885648</v>
+        <v>1.038964113911327</v>
       </c>
       <c r="M8">
-        <v>1.061766189417765</v>
+        <v>1.051118736914404</v>
       </c>
       <c r="N8">
-        <v>1.045765316457077</v>
+        <v>1.035699123724094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037312984092351</v>
+        <v>1.003428699008095</v>
       </c>
       <c r="D9">
-        <v>1.049498503042486</v>
+        <v>1.034325766803073</v>
       </c>
       <c r="E9">
-        <v>1.04623695837556</v>
+        <v>1.020472166014686</v>
       </c>
       <c r="F9">
-        <v>1.057304675225325</v>
+        <v>1.032468262179171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041128613965311</v>
+        <v>1.048176119626075</v>
       </c>
       <c r="J9">
-        <v>1.043104083169851</v>
+        <v>1.028860959350456</v>
       </c>
       <c r="K9">
-        <v>1.052617666721462</v>
+        <v>1.046885441957607</v>
       </c>
       <c r="L9">
-        <v>1.049366499560059</v>
+        <v>1.033241604516781</v>
       </c>
       <c r="M9">
-        <v>1.060399285550782</v>
+        <v>1.045055646848716</v>
       </c>
       <c r="N9">
-        <v>1.044585410613663</v>
+        <v>1.030322059924735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035987184431184</v>
+        <v>0.9967766877029374</v>
       </c>
       <c r="D10">
-        <v>1.048581365186581</v>
+        <v>1.029905471130878</v>
       </c>
       <c r="E10">
-        <v>1.045094700457768</v>
+        <v>1.015165853137544</v>
       </c>
       <c r="F10">
-        <v>1.056114892918572</v>
+        <v>1.026947105062217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040854817290938</v>
+        <v>1.046426188910839</v>
       </c>
       <c r="J10">
-        <v>1.04231917245213</v>
+        <v>1.025118778482508</v>
       </c>
       <c r="K10">
-        <v>1.051982606176102</v>
+        <v>1.043754980329187</v>
       </c>
       <c r="L10">
-        <v>1.048508116370531</v>
+        <v>1.029266577972096</v>
       </c>
       <c r="M10">
-        <v>1.059490129921601</v>
+        <v>1.040846289263631</v>
       </c>
       <c r="N10">
-        <v>1.043799385232692</v>
+        <v>1.02657456473072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035414069319703</v>
+        <v>0.9938249853349936</v>
       </c>
       <c r="D11">
-        <v>1.048184954770764</v>
+        <v>1.027950927678617</v>
       </c>
       <c r="E11">
-        <v>1.044601408293012</v>
+        <v>1.012820393202756</v>
       </c>
       <c r="F11">
-        <v>1.055601049301829</v>
+        <v>1.024506910901146</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04073523127238</v>
+        <v>1.045641058973843</v>
       </c>
       <c r="J11">
-        <v>1.041979450994857</v>
+        <v>1.023456927744027</v>
       </c>
       <c r="K11">
-        <v>1.051707466759326</v>
+        <v>1.042364303223533</v>
       </c>
       <c r="L11">
-        <v>1.048136915171094</v>
+        <v>1.027504518978226</v>
       </c>
       <c r="M11">
-        <v>1.059096977732995</v>
+        <v>1.038981002797463</v>
       </c>
       <c r="N11">
-        <v>1.043459181331983</v>
+        <v>1.024910353973574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035201335458307</v>
+        <v>0.9927173456737531</v>
       </c>
       <c r="D12">
-        <v>1.048037819871397</v>
+        <v>1.027218594555837</v>
       </c>
       <c r="E12">
-        <v>1.044418376833388</v>
+        <v>1.01194167695747</v>
       </c>
       <c r="F12">
-        <v>1.05541038832099</v>
+        <v>1.023592746501888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040690657653626</v>
+        <v>1.045345185663481</v>
       </c>
       <c r="J12">
-        <v>1.041853287195363</v>
+        <v>1.022833150803075</v>
       </c>
       <c r="K12">
-        <v>1.051605245991994</v>
+        <v>1.041842269686142</v>
       </c>
       <c r="L12">
-        <v>1.047999108799537</v>
+        <v>1.026843614454819</v>
       </c>
       <c r="M12">
-        <v>1.058951023053354</v>
+        <v>1.038281487729114</v>
       </c>
       <c r="N12">
-        <v>1.043332838365423</v>
+        <v>1.024285691197818</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035246960932897</v>
+        <v>0.9929554558796585</v>
       </c>
       <c r="D13">
-        <v>1.048069375816667</v>
+        <v>1.027375972879381</v>
       </c>
       <c r="E13">
-        <v>1.044457628656749</v>
+        <v>1.012130509795079</v>
       </c>
       <c r="F13">
-        <v>1.055451276509812</v>
+        <v>1.023789194892663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040700225805259</v>
+        <v>1.045408845494937</v>
       </c>
       <c r="J13">
-        <v>1.041880348656826</v>
+        <v>1.022967251215115</v>
       </c>
       <c r="K13">
-        <v>1.051627173654764</v>
+        <v>1.041954498549341</v>
       </c>
       <c r="L13">
-        <v>1.04802866534842</v>
+        <v>1.026985674562759</v>
       </c>
       <c r="M13">
-        <v>1.058982327200661</v>
+        <v>1.038431842067508</v>
       </c>
       <c r="N13">
-        <v>1.043359938257265</v>
+        <v>1.024419982047824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035396481672049</v>
+        <v>0.9937336600765403</v>
       </c>
       <c r="D14">
-        <v>1.048172790307385</v>
+        <v>1.027890523330352</v>
       </c>
       <c r="E14">
-        <v>1.044586274780323</v>
+        <v>1.012747913364949</v>
       </c>
       <c r="F14">
-        <v>1.055585285043879</v>
+        <v>1.0244315062241</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040731549941392</v>
+        <v>1.045616689257687</v>
       </c>
       <c r="J14">
-        <v>1.041969021761077</v>
+        <v>1.023405500145107</v>
       </c>
       <c r="K14">
-        <v>1.051699017594148</v>
+        <v>1.042321264579757</v>
       </c>
       <c r="L14">
-        <v>1.048125522529389</v>
+        <v>1.027450020467956</v>
       </c>
       <c r="M14">
-        <v>1.059084911441086</v>
+        <v>1.038923318195178</v>
       </c>
       <c r="N14">
-        <v>1.043448737287494</v>
+        <v>1.024858853341565</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035488625810642</v>
+        <v>0.9942116308270758</v>
       </c>
       <c r="D15">
-        <v>1.048236521967069</v>
+        <v>1.02820670883966</v>
       </c>
       <c r="E15">
-        <v>1.044665564358821</v>
+        <v>1.01312731108379</v>
       </c>
       <c r="F15">
-        <v>1.055667879142149</v>
+        <v>1.024826215930129</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04075082938485</v>
+        <v>1.045744182819544</v>
       </c>
       <c r="J15">
-        <v>1.042023659390779</v>
+        <v>1.02367465147026</v>
       </c>
       <c r="K15">
-        <v>1.051743280177825</v>
+        <v>1.04254650997425</v>
       </c>
       <c r="L15">
-        <v>1.048185209323416</v>
+        <v>1.027735263546184</v>
       </c>
       <c r="M15">
-        <v>1.059148127568919</v>
+        <v>1.039225241603021</v>
       </c>
       <c r="N15">
-        <v>1.043503452508898</v>
+        <v>1.025128386892471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036025240663078</v>
+        <v>0.9969710350884886</v>
       </c>
       <c r="D16">
-        <v>1.04860768889985</v>
+        <v>1.030034313702792</v>
       </c>
       <c r="E16">
-        <v>1.045127466464503</v>
+        <v>1.015320479105504</v>
       </c>
       <c r="F16">
-        <v>1.056149023438233</v>
+        <v>1.027107982004427</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040862732177774</v>
+        <v>1.046477707656815</v>
       </c>
       <c r="J16">
-        <v>1.042341721921618</v>
+        <v>1.025228174436783</v>
       </c>
       <c r="K16">
-        <v>1.052000863147835</v>
+        <v>1.043846518026835</v>
       </c>
       <c r="L16">
-        <v>1.048532762105813</v>
+        <v>1.029382637526324</v>
       </c>
       <c r="M16">
-        <v>1.059516233200081</v>
+        <v>1.040969162353977</v>
       </c>
       <c r="N16">
-        <v>1.043821966725013</v>
+        <v>1.026684116039798</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036362104471371</v>
+        <v>0.9986824742253746</v>
       </c>
       <c r="D17">
-        <v>1.048840705276168</v>
+        <v>1.031169706448153</v>
       </c>
       <c r="E17">
-        <v>1.045417558365396</v>
+        <v>1.016683174535448</v>
       </c>
       <c r="F17">
-        <v>1.056451192776492</v>
+        <v>1.028525793642747</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040932650535282</v>
+        <v>1.0469304072073</v>
       </c>
       <c r="J17">
-        <v>1.04254127525931</v>
+        <v>1.02619137732778</v>
       </c>
       <c r="K17">
-        <v>1.052162397896107</v>
+        <v>1.044652432264534</v>
       </c>
       <c r="L17">
-        <v>1.048750903532632</v>
+        <v>1.030404876571958</v>
       </c>
       <c r="M17">
-        <v>1.059747276070455</v>
+        <v>1.042051489300942</v>
       </c>
       <c r="N17">
-        <v>1.044021803451334</v>
+        <v>1.027648686789382</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036558684418867</v>
+        <v>0.9996738819862323</v>
       </c>
       <c r="D18">
-        <v>1.048976688770232</v>
+        <v>1.031828068505319</v>
       </c>
       <c r="E18">
-        <v>1.045586890623412</v>
+        <v>1.017473423625278</v>
       </c>
       <c r="F18">
-        <v>1.056627572186372</v>
+        <v>1.029348026779988</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040973333276432</v>
+        <v>1.047191824448915</v>
       </c>
       <c r="J18">
-        <v>1.042657685734651</v>
+        <v>1.026749215330888</v>
       </c>
       <c r="K18">
-        <v>1.052256603428209</v>
+        <v>1.045119128771712</v>
       </c>
       <c r="L18">
-        <v>1.048878188371345</v>
+        <v>1.03099720860788</v>
       </c>
       <c r="M18">
-        <v>1.059882089352818</v>
+        <v>1.042678699902852</v>
       </c>
       <c r="N18">
-        <v>1.044138379242903</v>
+        <v>1.028207316986439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036625728823177</v>
+        <v>1.000010780785632</v>
       </c>
       <c r="D19">
-        <v>1.049023067268821</v>
+        <v>1.032051899657273</v>
       </c>
       <c r="E19">
-        <v>1.045644649955126</v>
+        <v>1.017742109580257</v>
       </c>
       <c r="F19">
-        <v>1.056687734848731</v>
+        <v>1.029627590705883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040987188148337</v>
+        <v>1.04728051774615</v>
       </c>
       <c r="J19">
-        <v>1.042697381098692</v>
+        <v>1.026938755987569</v>
       </c>
       <c r="K19">
-        <v>1.05228872250114</v>
+        <v>1.045277692595309</v>
       </c>
       <c r="L19">
-        <v>1.048921597076251</v>
+        <v>1.031198520839943</v>
       </c>
       <c r="M19">
-        <v>1.059928065608005</v>
+        <v>1.042891876127436</v>
       </c>
       <c r="N19">
-        <v>1.044178130978914</v>
+        <v>1.028397126812593</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036325952542797</v>
+        <v>0.9984995648069427</v>
       </c>
       <c r="D20">
-        <v>1.048815697674757</v>
+        <v>1.031048293950787</v>
       </c>
       <c r="E20">
-        <v>1.045386421145104</v>
+        <v>1.016537447092805</v>
       </c>
       <c r="F20">
-        <v>1.056418759492746</v>
+        <v>1.028374169772628</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040925159238892</v>
+        <v>1.046882110233466</v>
       </c>
       <c r="J20">
-        <v>1.042519863576743</v>
+        <v>1.026088448493189</v>
       </c>
       <c r="K20">
-        <v>1.052145068282987</v>
+        <v>1.044566316210513</v>
       </c>
       <c r="L20">
-        <v>1.048727494187438</v>
+        <v>1.030295607577541</v>
       </c>
       <c r="M20">
-        <v>1.059722482184967</v>
+        <v>1.041935791015556</v>
       </c>
       <c r="N20">
-        <v>1.044000361361722</v>
+        <v>1.027545611784039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035352447480718</v>
+        <v>0.9935048131839259</v>
       </c>
       <c r="D21">
-        <v>1.04814233427677</v>
+        <v>1.027739177742314</v>
       </c>
       <c r="E21">
-        <v>1.044548386188467</v>
+        <v>1.01256631338497</v>
       </c>
       <c r="F21">
-        <v>1.055545817238491</v>
+        <v>1.02424257872381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040722330010557</v>
+        <v>1.045555602563443</v>
       </c>
       <c r="J21">
-        <v>1.041942909072215</v>
+        <v>1.023276628142409</v>
       </c>
       <c r="K21">
-        <v>1.051677861933475</v>
+        <v>1.042213413823975</v>
       </c>
       <c r="L21">
-        <v>1.048096998441048</v>
+        <v>1.027313460939259</v>
       </c>
       <c r="M21">
-        <v>1.059054700729597</v>
+        <v>1.038778776891619</v>
       </c>
       <c r="N21">
-        <v>1.043422587515619</v>
+        <v>1.024729798325841</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034741215261692</v>
+        <v>0.9902990636308993</v>
       </c>
       <c r="D22">
-        <v>1.047719598941383</v>
+        <v>1.025621860960087</v>
       </c>
       <c r="E22">
-        <v>1.044022633902351</v>
+        <v>1.010025889137982</v>
       </c>
       <c r="F22">
-        <v>1.054998141744917</v>
+        <v>1.021599764730113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040593912322523</v>
+        <v>1.044696969754479</v>
       </c>
       <c r="J22">
-        <v>1.041580293673363</v>
+        <v>1.021471025507109</v>
       </c>
       <c r="K22">
-        <v>1.051383985685175</v>
+        <v>1.040702276682452</v>
       </c>
       <c r="L22">
-        <v>1.047701011257956</v>
+        <v>1.025401313743971</v>
       </c>
       <c r="M22">
-        <v>1.058635301104669</v>
+        <v>1.036755135972285</v>
       </c>
       <c r="N22">
-        <v>1.043059457161309</v>
+        <v>1.022921631527693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035065159995107</v>
+        <v>0.9920048714849724</v>
       </c>
       <c r="D23">
-        <v>1.047943638101192</v>
+        <v>1.02674785713186</v>
       </c>
       <c r="E23">
-        <v>1.044301235144904</v>
+        <v>1.011376864618154</v>
       </c>
       <c r="F23">
-        <v>1.05528836252929</v>
+        <v>1.023005162622666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040662073169441</v>
+        <v>1.045154523079042</v>
       </c>
       <c r="J23">
-        <v>1.041772509356325</v>
+        <v>1.022431874791681</v>
       </c>
       <c r="K23">
-        <v>1.051539786432704</v>
+        <v>1.041506437397049</v>
       </c>
       <c r="L23">
-        <v>1.047910890244518</v>
+        <v>1.026418591832229</v>
       </c>
       <c r="M23">
-        <v>1.058857588510384</v>
+        <v>1.037831666577736</v>
       </c>
       <c r="N23">
-        <v>1.043251945812589</v>
+        <v>1.02388384532846</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036342287756059</v>
+        <v>0.9985822348171776</v>
       </c>
       <c r="D24">
-        <v>1.048826997320507</v>
+        <v>1.031103167046921</v>
       </c>
       <c r="E24">
-        <v>1.045400490323873</v>
+        <v>1.016603309206755</v>
       </c>
       <c r="F24">
-        <v>1.056433414298831</v>
+        <v>1.028442696735904</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040928544540661</v>
+        <v>1.04690394169023</v>
       </c>
       <c r="J24">
-        <v>1.042529538550145</v>
+        <v>1.026134969889662</v>
       </c>
       <c r="K24">
-        <v>1.052152898835598</v>
+        <v>1.044605238779074</v>
       </c>
       <c r="L24">
-        <v>1.048738071718986</v>
+        <v>1.030344993636471</v>
       </c>
       <c r="M24">
-        <v>1.059733685320662</v>
+        <v>1.041988082718592</v>
       </c>
       <c r="N24">
-        <v>1.044010050074696</v>
+        <v>1.027592199246231</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03782796521437</v>
+        <v>1.005947974198637</v>
       </c>
       <c r="D25">
-        <v>1.049854785531768</v>
+        <v>1.03600528234735</v>
       </c>
       <c r="E25">
-        <v>1.046681072445271</v>
+        <v>1.022489341484774</v>
       </c>
       <c r="F25">
-        <v>1.057767241723818</v>
+        <v>1.034567254314821</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041233865698154</v>
+        <v>1.04883107333121</v>
       </c>
       <c r="J25">
-        <v>1.043408588457372</v>
+        <v>1.030276810053961</v>
       </c>
       <c r="K25">
-        <v>1.052863789978759</v>
+        <v>1.048069240156472</v>
       </c>
       <c r="L25">
-        <v>1.04969979372343</v>
+        <v>1.034748289810104</v>
       </c>
       <c r="M25">
-        <v>1.060752297659661</v>
+        <v>1.046651651704344</v>
       </c>
       <c r="N25">
-        <v>1.04489034833362</v>
+        <v>1.03173992129864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.011625395771131</v>
+        <v>0.9694968824040683</v>
       </c>
       <c r="D2">
-        <v>1.039800779675963</v>
+        <v>1.035712547953849</v>
       </c>
       <c r="E2">
-        <v>1.027050798574423</v>
+        <v>0.9799828013711958</v>
       </c>
       <c r="F2">
-        <v>1.0393139005027</v>
+        <v>1.003408351595233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050289317976261</v>
+        <v>1.049337402236512</v>
       </c>
       <c r="J2">
-        <v>1.033463867319008</v>
+        <v>0.9926298529485169</v>
       </c>
       <c r="K2">
-        <v>1.050732134957654</v>
+        <v>1.04669579886789</v>
       </c>
       <c r="L2">
-        <v>1.038145709880058</v>
+        <v>0.991728235873558</v>
       </c>
       <c r="M2">
-        <v>1.050251409453273</v>
+        <v>1.014820406021586</v>
       </c>
       <c r="N2">
-        <v>1.034931504550572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.001192782754528</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.020301456885945</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044088245069363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015641292487037</v>
+        <v>0.9740097025127755</v>
       </c>
       <c r="D3">
-        <v>1.042494036976806</v>
+        <v>1.037067054470457</v>
       </c>
       <c r="E3">
-        <v>1.030290647562226</v>
+        <v>0.9835734474757749</v>
       </c>
       <c r="F3">
-        <v>1.042685345240998</v>
+        <v>1.006786073816797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051304335892573</v>
+        <v>1.049487680647808</v>
       </c>
       <c r="J3">
-        <v>1.035714455464985</v>
+        <v>0.9952348690385592</v>
       </c>
       <c r="K3">
-        <v>1.052610604669416</v>
+        <v>1.047246644725429</v>
       </c>
       <c r="L3">
-        <v>1.040550085830497</v>
+        <v>0.9944209152111911</v>
       </c>
       <c r="M3">
-        <v>1.052799706092425</v>
+        <v>1.017332855703094</v>
       </c>
       <c r="N3">
-        <v>1.037185288789854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.002124030703187</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.022289947248127</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04447508416292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018193096644073</v>
+        <v>0.9768673404574145</v>
       </c>
       <c r="D4">
-        <v>1.044208941606994</v>
+        <v>1.037931855449038</v>
       </c>
       <c r="E4">
-        <v>1.032355221860481</v>
+        <v>0.985853292369369</v>
       </c>
       <c r="F4">
-        <v>1.044833765448577</v>
+        <v>1.008934437887849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051941444614447</v>
+        <v>1.049572111496015</v>
       </c>
       <c r="J4">
-        <v>1.037142598816629</v>
+        <v>0.9968818813006853</v>
       </c>
       <c r="K4">
-        <v>1.053801549247748</v>
+        <v>1.047593055951436</v>
       </c>
       <c r="L4">
-        <v>1.042078221841511</v>
+        <v>0.9961255085673676</v>
       </c>
       <c r="M4">
-        <v>1.054419600651146</v>
+        <v>1.018926214931009</v>
       </c>
       <c r="N4">
-        <v>1.038615460268867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00271176662698</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.023551016015721</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044720909765007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019255033450948</v>
+        <v>0.9780542853366571</v>
       </c>
       <c r="D5">
-        <v>1.044923392269602</v>
+        <v>1.038297596703329</v>
       </c>
       <c r="E5">
-        <v>1.033215771481464</v>
+        <v>0.9868016689979588</v>
       </c>
       <c r="F5">
-        <v>1.045729254550615</v>
+        <v>1.009828998048836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052204657489417</v>
+        <v>1.049605985669269</v>
       </c>
       <c r="J5">
-        <v>1.037736429025862</v>
+        <v>0.9975653321433655</v>
       </c>
       <c r="K5">
-        <v>1.054296473047942</v>
+        <v>1.047741193554237</v>
       </c>
       <c r="L5">
-        <v>1.042714204107813</v>
+        <v>0.9968333669413857</v>
       </c>
       <c r="M5">
-        <v>1.055093833352393</v>
+        <v>1.019588563744784</v>
       </c>
       <c r="N5">
-        <v>1.039210133785111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0029553943301</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.024075233207698</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0448327767102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019432711460725</v>
+        <v>0.9782527491874538</v>
       </c>
       <c r="D6">
-        <v>1.045042975423849</v>
+        <v>1.03836485419982</v>
       </c>
       <c r="E6">
-        <v>1.03335983403773</v>
+        <v>0.9869603250628924</v>
       </c>
       <c r="F6">
-        <v>1.045879165551633</v>
+        <v>1.00997870223107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052248583063284</v>
+        <v>1.04961323696768</v>
       </c>
       <c r="J6">
-        <v>1.037835755926553</v>
+        <v>0.9976795696782917</v>
       </c>
       <c r="K6">
-        <v>1.054379239421688</v>
+        <v>1.047771872553017</v>
       </c>
       <c r="L6">
-        <v>1.042820615274764</v>
+        <v>0.9969517142314396</v>
       </c>
       <c r="M6">
-        <v>1.055206647961192</v>
+        <v>1.019699342265177</v>
       </c>
       <c r="N6">
-        <v>1.039309601741394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.002996100535754</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.024162909032709</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044863157169408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018207328442214</v>
+        <v>0.9768832563759922</v>
       </c>
       <c r="D7">
-        <v>1.044218513441057</v>
+        <v>1.037952736353756</v>
       </c>
       <c r="E7">
-        <v>1.032366749345655</v>
+        <v>0.9858660037363475</v>
       </c>
       <c r="F7">
-        <v>1.044845761008024</v>
+        <v>1.008946424489774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051944979753553</v>
+        <v>1.049577143280328</v>
       </c>
       <c r="J7">
-        <v>1.037150559159137</v>
+        <v>0.9968910484107881</v>
       </c>
       <c r="K7">
-        <v>1.053808184867788</v>
+        <v>1.047610851837878</v>
       </c>
       <c r="L7">
-        <v>1.042086744969491</v>
+        <v>0.9961350010304735</v>
       </c>
       <c r="M7">
-        <v>1.054428636156251</v>
+        <v>1.01893509441483</v>
       </c>
       <c r="N7">
-        <v>1.038623431915975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.002715035448619</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.023558043702273</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044753470748898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012992482406415</v>
+        <v>0.971035281804153</v>
       </c>
       <c r="D8">
-        <v>1.040716837777569</v>
+        <v>1.036191905895272</v>
       </c>
       <c r="E8">
-        <v>1.028152446406556</v>
+        <v>0.9812055118255794</v>
       </c>
       <c r="F8">
-        <v>1.040460293918727</v>
+        <v>1.004557769386476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050636473025956</v>
+        <v>1.049396007884478</v>
       </c>
       <c r="J8">
-        <v>1.034230397931147</v>
+        <v>0.9935184033499261</v>
       </c>
       <c r="K8">
-        <v>1.051372134934902</v>
+        <v>1.046902974072362</v>
       </c>
       <c r="L8">
-        <v>1.038964113911327</v>
+        <v>0.9926462320148448</v>
       </c>
       <c r="M8">
-        <v>1.051118736914404</v>
+        <v>1.015676354714089</v>
       </c>
       <c r="N8">
-        <v>1.035699123724094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.001510635971261</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020978902249434</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044257468988284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003428699008095</v>
+        <v>0.9602259581434257</v>
       </c>
       <c r="D9">
-        <v>1.034325766803073</v>
+        <v>1.032974464665603</v>
       </c>
       <c r="E9">
-        <v>1.020472166014686</v>
+        <v>0.9726427993667474</v>
       </c>
       <c r="F9">
-        <v>1.032468262179171</v>
+        <v>0.996524668613749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048176119626075</v>
+        <v>1.048972022628651</v>
       </c>
       <c r="J9">
-        <v>1.028860959350456</v>
+        <v>0.9872658861201588</v>
       </c>
       <c r="K9">
-        <v>1.046885441957607</v>
+        <v>1.045554285442303</v>
       </c>
       <c r="L9">
-        <v>1.033241604516781</v>
+        <v>0.9861958907662132</v>
       </c>
       <c r="M9">
-        <v>1.045055646848716</v>
+        <v>1.009674383424476</v>
       </c>
       <c r="N9">
-        <v>1.030322059924735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9992700114279576</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.016228594098217</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043300737566055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9967766877029374</v>
+        <v>0.9528095967524144</v>
       </c>
       <c r="D10">
-        <v>1.029905471130878</v>
+        <v>1.030771624519167</v>
       </c>
       <c r="E10">
-        <v>1.015165853137544</v>
+        <v>0.9668229245988251</v>
       </c>
       <c r="F10">
-        <v>1.026947105062217</v>
+        <v>0.991315393749345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046426188910839</v>
+        <v>1.048623684632349</v>
       </c>
       <c r="J10">
-        <v>1.025118778482508</v>
+        <v>0.9830292353278737</v>
       </c>
       <c r="K10">
-        <v>1.043754980329187</v>
+        <v>1.044606659347697</v>
       </c>
       <c r="L10">
-        <v>1.029266577972096</v>
+        <v>0.9818182019998456</v>
       </c>
       <c r="M10">
-        <v>1.040846289263631</v>
+        <v>1.005843242056796</v>
       </c>
       <c r="N10">
-        <v>1.02657456473072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.997753507021752</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0132494516115</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04264738644989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9938249853349936</v>
+        <v>0.9508603715798921</v>
       </c>
       <c r="D11">
-        <v>1.027950927678617</v>
+        <v>1.029819229223579</v>
       </c>
       <c r="E11">
-        <v>1.012820393202756</v>
+        <v>0.9654452073986555</v>
       </c>
       <c r="F11">
-        <v>1.024506910901146</v>
+        <v>0.9919079601975606</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045641058973843</v>
+        <v>1.048460176555388</v>
       </c>
       <c r="J11">
-        <v>1.023456927744027</v>
+        <v>0.9824306027776695</v>
       </c>
       <c r="K11">
-        <v>1.042364303223533</v>
+        <v>1.044199887574685</v>
       </c>
       <c r="L11">
-        <v>1.027504518978226</v>
+        <v>0.9810495846366428</v>
       </c>
       <c r="M11">
-        <v>1.038981002797463</v>
+        <v>1.006984111198445</v>
       </c>
       <c r="N11">
-        <v>1.024910353973574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9975955235405244</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.014600922999931</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042392311289767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9927173456737531</v>
+        <v>0.9506233745625917</v>
       </c>
       <c r="D12">
-        <v>1.027218594555837</v>
+        <v>1.029453713433802</v>
       </c>
       <c r="E12">
-        <v>1.01194167695747</v>
+        <v>0.965373101767929</v>
       </c>
       <c r="F12">
-        <v>1.023592746501888</v>
+        <v>0.9931106715602619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045345185663481</v>
+        <v>1.048395032061213</v>
       </c>
       <c r="J12">
-        <v>1.022833150803075</v>
+        <v>0.9826751103751049</v>
       </c>
       <c r="K12">
-        <v>1.041842269686142</v>
+        <v>1.044037575519721</v>
       </c>
       <c r="L12">
-        <v>1.026843614454819</v>
+        <v>0.9811951890126993</v>
       </c>
       <c r="M12">
-        <v>1.038281487729114</v>
+        <v>1.008371061260879</v>
       </c>
       <c r="N12">
-        <v>1.024285691197818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9977342307818674</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.01603226614517</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042277553525376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9929554558796585</v>
+        <v>0.9516786761202511</v>
       </c>
       <c r="D13">
-        <v>1.027375972879381</v>
+        <v>1.029530397618539</v>
       </c>
       <c r="E13">
-        <v>1.012130509795079</v>
+        <v>0.9662898127055599</v>
       </c>
       <c r="F13">
-        <v>1.023789194892663</v>
+        <v>0.994880538050738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045408845494937</v>
+        <v>1.048408748996192</v>
       </c>
       <c r="J13">
-        <v>1.022967251215115</v>
+        <v>0.983578141520433</v>
       </c>
       <c r="K13">
-        <v>1.041954498549341</v>
+        <v>1.044070686826146</v>
       </c>
       <c r="L13">
-        <v>1.026985674562759</v>
+        <v>0.9820463379449001</v>
       </c>
       <c r="M13">
-        <v>1.038431842067508</v>
+        <v>1.010062114474569</v>
       </c>
       <c r="N13">
-        <v>1.024419982047824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9981075485603685</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.017651618528807</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042298495319382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9937336600765403</v>
+        <v>0.9529833473639514</v>
       </c>
       <c r="D14">
-        <v>1.027890523330352</v>
+        <v>1.029788280008105</v>
       </c>
       <c r="E14">
-        <v>1.012747913364949</v>
+        <v>0.9673628738255615</v>
       </c>
       <c r="F14">
-        <v>1.0244315062241</v>
+        <v>0.9963436562073219</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045616689257687</v>
+        <v>1.048454682153709</v>
       </c>
       <c r="J14">
-        <v>1.023405500145107</v>
+        <v>0.9844905452279457</v>
       </c>
       <c r="K14">
-        <v>1.042321264579757</v>
+        <v>1.044185741164019</v>
       </c>
       <c r="L14">
-        <v>1.027450020467956</v>
+        <v>0.9829455075383989</v>
       </c>
       <c r="M14">
-        <v>1.038923318195178</v>
+        <v>1.01135191667118</v>
       </c>
       <c r="N14">
-        <v>1.024858853341565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9984687532587537</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.018847394035777</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042381251826716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9942116308270758</v>
+        <v>0.9535951560500212</v>
       </c>
       <c r="D15">
-        <v>1.02820670883966</v>
+        <v>1.029950514496379</v>
       </c>
       <c r="E15">
-        <v>1.01312731108379</v>
+        <v>0.9678512132572969</v>
       </c>
       <c r="F15">
-        <v>1.024826215930129</v>
+        <v>0.9968752312497428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045744182819544</v>
+        <v>1.048483410644902</v>
       </c>
       <c r="J15">
-        <v>1.02367465147026</v>
+        <v>0.9848708173755656</v>
       </c>
       <c r="K15">
-        <v>1.04254650997425</v>
+        <v>1.044259961764017</v>
       </c>
       <c r="L15">
-        <v>1.027735263546184</v>
+        <v>0.983330524102125</v>
       </c>
       <c r="M15">
-        <v>1.039225241603021</v>
+        <v>1.011784060878322</v>
       </c>
       <c r="N15">
-        <v>1.025128386892471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9986125078975671</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.019227047508245</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042439543227685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9969710350884886</v>
+        <v>0.9564955579515312</v>
       </c>
       <c r="D16">
-        <v>1.030034313702792</v>
+        <v>1.030866578896009</v>
       </c>
       <c r="E16">
-        <v>1.015320479105504</v>
+        <v>0.9700997272501979</v>
       </c>
       <c r="F16">
-        <v>1.027107982004427</v>
+        <v>0.9987672313253403</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046477707656815</v>
+        <v>1.048641046745407</v>
       </c>
       <c r="J16">
-        <v>1.025228174436783</v>
+        <v>0.9864655641738316</v>
       </c>
       <c r="K16">
-        <v>1.043846518026835</v>
+        <v>1.044664919573699</v>
       </c>
       <c r="L16">
-        <v>1.029382637526324</v>
+        <v>0.9849923368622505</v>
       </c>
       <c r="M16">
-        <v>1.040969162353977</v>
+        <v>1.013122036210234</v>
       </c>
       <c r="N16">
-        <v>1.026684116039798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9991727475491006</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.020245265062836</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0427290020923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9986824742253746</v>
+        <v>0.9580491888256651</v>
       </c>
       <c r="D17">
-        <v>1.031169706448153</v>
+        <v>1.0314369962365</v>
       </c>
       <c r="E17">
-        <v>1.016683174535448</v>
+        <v>0.9712745310353825</v>
       </c>
       <c r="F17">
-        <v>1.028525793642747</v>
+        <v>0.9994602894695165</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0469304072073</v>
+        <v>1.048735667631504</v>
       </c>
       <c r="J17">
-        <v>1.02619137732778</v>
+        <v>0.9872207223411289</v>
       </c>
       <c r="K17">
-        <v>1.044652432264534</v>
+        <v>1.044915393702988</v>
       </c>
       <c r="L17">
-        <v>1.030404876571958</v>
+        <v>0.9858056925623897</v>
       </c>
       <c r="M17">
-        <v>1.042051489300942</v>
+        <v>1.013477788388531</v>
       </c>
       <c r="N17">
-        <v>1.027648686789382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9994163353165193</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.020395349924146</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0429086635717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9996738819862323</v>
+        <v>0.9585405062447959</v>
       </c>
       <c r="D18">
-        <v>1.031828068505319</v>
+        <v>1.031758202652127</v>
       </c>
       <c r="E18">
-        <v>1.017473423625278</v>
+        <v>0.9715877872406504</v>
       </c>
       <c r="F18">
-        <v>1.029348026779988</v>
+        <v>0.9990053522357277</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047191824448915</v>
+        <v>1.048787130829848</v>
       </c>
       <c r="J18">
-        <v>1.026749215330888</v>
+        <v>0.9872667830917866</v>
       </c>
       <c r="K18">
-        <v>1.045119128771712</v>
+        <v>1.04505037552123</v>
       </c>
       <c r="L18">
-        <v>1.03099720860788</v>
+        <v>0.9859156626037542</v>
       </c>
       <c r="M18">
-        <v>1.042678699902852</v>
+        <v>1.012841276711079</v>
       </c>
       <c r="N18">
-        <v>1.028207316986439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.999390671691012</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.019650030229026</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042992565384677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000010780785632</v>
+        <v>0.9580331070963899</v>
       </c>
       <c r="D19">
-        <v>1.032051899657273</v>
+        <v>1.031875197977585</v>
       </c>
       <c r="E19">
-        <v>1.017742109580257</v>
+        <v>0.971090392679371</v>
       </c>
       <c r="F19">
-        <v>1.029627590705883</v>
+        <v>0.9973944212617237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04728051774615</v>
+        <v>1.048806112497042</v>
       </c>
       <c r="J19">
-        <v>1.026938755987569</v>
+        <v>0.986636473400233</v>
       </c>
       <c r="K19">
-        <v>1.045277692595309</v>
+        <v>1.045103788708061</v>
       </c>
       <c r="L19">
-        <v>1.031198520839943</v>
+        <v>0.9853601883075095</v>
       </c>
       <c r="M19">
-        <v>1.042891876127436</v>
+        <v>1.011193496637574</v>
       </c>
       <c r="N19">
-        <v>1.028397126812593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9991152970550653</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.018014281197723</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043036666995797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9984995648069427</v>
+        <v>0.9547417626132293</v>
       </c>
       <c r="D20">
-        <v>1.031048293950787</v>
+        <v>1.031375180286341</v>
       </c>
       <c r="E20">
-        <v>1.016537447092805</v>
+        <v>0.9683368211134205</v>
       </c>
       <c r="F20">
-        <v>1.028374169772628</v>
+        <v>0.9926795168010863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046882110233466</v>
+        <v>1.048725508055919</v>
       </c>
       <c r="J20">
-        <v>1.026088448493189</v>
+        <v>0.9841361269416087</v>
       </c>
       <c r="K20">
-        <v>1.044566316210513</v>
+        <v>1.044887892900419</v>
       </c>
       <c r="L20">
-        <v>1.030295607577541</v>
+        <v>0.9829602561099722</v>
       </c>
       <c r="M20">
-        <v>1.041935791015556</v>
+        <v>1.006852321137273</v>
       </c>
       <c r="N20">
-        <v>1.027545611784039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9981502472017896</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.0140371774625</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042887895673751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9935048131839259</v>
+        <v>0.9488905914817436</v>
       </c>
       <c r="D21">
-        <v>1.027739177742314</v>
+        <v>1.029722686715711</v>
       </c>
       <c r="E21">
-        <v>1.01256631338497</v>
+        <v>0.9637332725668055</v>
       </c>
       <c r="F21">
-        <v>1.02424257872381</v>
+        <v>0.9882045586896351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045555602563443</v>
+        <v>1.04844328541862</v>
       </c>
       <c r="J21">
-        <v>1.023276628142409</v>
+        <v>0.980692283462604</v>
       </c>
       <c r="K21">
-        <v>1.042213413823975</v>
+        <v>1.044162016094864</v>
       </c>
       <c r="L21">
-        <v>1.027313460939259</v>
+        <v>0.97943592006297</v>
       </c>
       <c r="M21">
-        <v>1.038778776891619</v>
+        <v>1.0034128989722</v>
       </c>
       <c r="N21">
-        <v>1.024729798325841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9969065337256092</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.011272855668492</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0423778596149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902990636308993</v>
+        <v>0.9452019436153153</v>
       </c>
       <c r="D22">
-        <v>1.025621860960087</v>
+        <v>1.028657052344519</v>
       </c>
       <c r="E22">
-        <v>1.010025889137982</v>
+        <v>0.9608491771326368</v>
       </c>
       <c r="F22">
-        <v>1.021599764730113</v>
+        <v>0.9855191939830079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044696969754479</v>
+        <v>1.048249397389832</v>
       </c>
       <c r="J22">
-        <v>1.021471025507109</v>
+        <v>0.9785510074355275</v>
       </c>
       <c r="K22">
-        <v>1.040702276682452</v>
+        <v>1.043681410035747</v>
       </c>
       <c r="L22">
-        <v>1.025401313743971</v>
+        <v>0.9772382701765076</v>
       </c>
       <c r="M22">
-        <v>1.036755135972285</v>
+        <v>1.001383082121691</v>
       </c>
       <c r="N22">
-        <v>1.022921631527693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9961354489458488</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.00966632094481</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042024679342392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9920048714849724</v>
+        <v>0.9471663825982864</v>
       </c>
       <c r="D23">
-        <v>1.02674785713186</v>
+        <v>1.029211037751435</v>
       </c>
       <c r="E23">
-        <v>1.011376864618154</v>
+        <v>0.9623842196700569</v>
       </c>
       <c r="F23">
-        <v>1.023005162622666</v>
+        <v>0.9869479907655145</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045154523079042</v>
+        <v>1.048351065841404</v>
       </c>
       <c r="J23">
-        <v>1.022431874791681</v>
+        <v>0.9796914620778427</v>
       </c>
       <c r="K23">
-        <v>1.041506437397049</v>
+        <v>1.043925265571843</v>
       </c>
       <c r="L23">
-        <v>1.026418591832229</v>
+        <v>0.9784084963081511</v>
       </c>
       <c r="M23">
-        <v>1.037831666577736</v>
+        <v>1.002463598699258</v>
       </c>
       <c r="N23">
-        <v>1.02388384532846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9965461929732145</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.010521515546389</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042187559084175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9985822348171776</v>
+        <v>0.9547056743657345</v>
       </c>
       <c r="D24">
-        <v>1.031103167046921</v>
+        <v>1.031382160329544</v>
       </c>
       <c r="E24">
-        <v>1.016603309206755</v>
+        <v>0.9682950681683015</v>
       </c>
       <c r="F24">
-        <v>1.028442696735904</v>
+        <v>0.9924598616585699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04690394169023</v>
+        <v>1.048725542854911</v>
       </c>
       <c r="J24">
-        <v>1.026134969889662</v>
+        <v>0.9840661173555026</v>
       </c>
       <c r="K24">
-        <v>1.044605238779074</v>
+        <v>1.044879706486628</v>
       </c>
       <c r="L24">
-        <v>1.030344993636471</v>
+        <v>0.9829028144791987</v>
       </c>
       <c r="M24">
-        <v>1.041988082718592</v>
+        <v>1.006620697233951</v>
       </c>
       <c r="N24">
-        <v>1.027592199246231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9981203620355162</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.013811716647639</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042854958004996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005947974198637</v>
+        <v>0.9630840576767435</v>
       </c>
       <c r="D25">
-        <v>1.03600528234735</v>
+        <v>1.033840219357871</v>
       </c>
       <c r="E25">
-        <v>1.022489341484774</v>
+        <v>0.9749004626208887</v>
       </c>
       <c r="F25">
-        <v>1.034567254314821</v>
+        <v>0.9986390619836494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04883107333121</v>
+        <v>1.049098967336484</v>
       </c>
       <c r="J25">
-        <v>1.030276810053961</v>
+        <v>0.9889210226421804</v>
       </c>
       <c r="K25">
-        <v>1.048069240156472</v>
+        <v>1.04593497792716</v>
       </c>
       <c r="L25">
-        <v>1.034748289810104</v>
+        <v>0.9879013278409009</v>
       </c>
       <c r="M25">
-        <v>1.046651651704344</v>
+        <v>1.011258541563161</v>
       </c>
       <c r="N25">
-        <v>1.03173992129864</v>
+        <v>0.9998639716349339</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.017482392021205</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043598245509948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9694968824040683</v>
+        <v>0.9710073189596763</v>
       </c>
       <c r="D2">
-        <v>1.035712547953849</v>
+        <v>1.032825697322989</v>
       </c>
       <c r="E2">
-        <v>0.9799828013711958</v>
+        <v>0.9812823756558423</v>
       </c>
       <c r="F2">
-        <v>1.003408351595233</v>
+        <v>1.004062652559003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049337402236512</v>
+        <v>1.04821970039377</v>
       </c>
       <c r="J2">
-        <v>0.9926298529485169</v>
+        <v>0.9940911811521341</v>
       </c>
       <c r="K2">
-        <v>1.04669579886789</v>
+        <v>1.043845903045111</v>
       </c>
       <c r="L2">
-        <v>0.991728235873558</v>
+        <v>0.9930087862379035</v>
       </c>
       <c r="M2">
-        <v>1.014820406021586</v>
+        <v>1.015465676864729</v>
       </c>
       <c r="N2">
-        <v>1.001192782754528</v>
+        <v>1.005399348636934</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.020301456885945</v>
+        <v>1.020812160154849</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044088245069363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042081863518561</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02364068081744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9740097025127755</v>
+        <v>0.9754336892039359</v>
       </c>
       <c r="D3">
-        <v>1.037067054470457</v>
+        <v>1.034091256967293</v>
       </c>
       <c r="E3">
-        <v>0.9835734474757749</v>
+        <v>0.9848003406151691</v>
       </c>
       <c r="F3">
-        <v>1.006786073816797</v>
+        <v>1.007402134153329</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049487680647808</v>
+        <v>1.048324723569994</v>
       </c>
       <c r="J3">
-        <v>0.9952348690385592</v>
+        <v>0.9966172218779282</v>
       </c>
       <c r="K3">
-        <v>1.047246644725429</v>
+        <v>1.044305752204073</v>
       </c>
       <c r="L3">
-        <v>0.9944209152111911</v>
+        <v>0.9956314704729425</v>
       </c>
       <c r="M3">
-        <v>1.017332855703094</v>
+        <v>1.017941171350137</v>
       </c>
       <c r="N3">
-        <v>1.002124030703187</v>
+        <v>1.006120545085207</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.022289947248127</v>
+        <v>1.022771400703562</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04447508416292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042404089054006</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023685067749011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9768673404574145</v>
+        <v>0.9782376022872107</v>
       </c>
       <c r="D4">
-        <v>1.037931855449038</v>
+        <v>1.034899908592828</v>
       </c>
       <c r="E4">
-        <v>0.985853292369369</v>
+        <v>0.987034896045903</v>
       </c>
       <c r="F4">
-        <v>1.008934437887849</v>
+        <v>1.009526766569759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049572111496015</v>
+        <v>1.048380620817972</v>
       </c>
       <c r="J4">
-        <v>0.9968818813006853</v>
+        <v>0.9982148642441165</v>
       </c>
       <c r="K4">
-        <v>1.047593055951436</v>
+        <v>1.044594607113661</v>
       </c>
       <c r="L4">
-        <v>0.9961255085673676</v>
+        <v>0.9972923587798715</v>
       </c>
       <c r="M4">
-        <v>1.018926214931009</v>
+        <v>1.019511555773415</v>
       </c>
       <c r="N4">
-        <v>1.00271176662698</v>
+        <v>1.006575844610329</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.023551016015721</v>
+        <v>1.024014285127352</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044720909765007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042609306323373</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023709269424258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9780542853366571</v>
+        <v>0.9794024617851981</v>
       </c>
       <c r="D5">
-        <v>1.038297596703329</v>
+        <v>1.035242247950712</v>
       </c>
       <c r="E5">
-        <v>0.9868016689979588</v>
+        <v>0.9879646282129594</v>
       </c>
       <c r="F5">
-        <v>1.009828998048836</v>
+        <v>1.010411578795087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049605985669269</v>
+        <v>1.048402821756132</v>
       </c>
       <c r="J5">
-        <v>0.9975653321433655</v>
+        <v>0.9988779551756584</v>
       </c>
       <c r="K5">
-        <v>1.047741193554237</v>
+        <v>1.044718734616381</v>
       </c>
       <c r="L5">
-        <v>0.9968333669413857</v>
+        <v>0.9979822048399379</v>
       </c>
       <c r="M5">
-        <v>1.019588563744784</v>
+        <v>1.020164458319756</v>
       </c>
       <c r="N5">
-        <v>1.0029553943301</v>
+        <v>1.006764604308947</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.024075233207698</v>
+        <v>1.024531025703505</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0448327767102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042704919235391</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023719189608764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9782527491874538</v>
+        <v>0.9795972459380938</v>
       </c>
       <c r="D6">
-        <v>1.03836485419982</v>
+        <v>1.035305438948257</v>
       </c>
       <c r="E6">
-        <v>0.9869603250628924</v>
+        <v>0.9881201763729313</v>
       </c>
       <c r="F6">
-        <v>1.00997870223107</v>
+        <v>1.010559659299084</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04961323696768</v>
+        <v>1.048408301146565</v>
       </c>
       <c r="J6">
-        <v>0.9976795696782917</v>
+        <v>0.9989887968216224</v>
       </c>
       <c r="K6">
-        <v>1.047771872553017</v>
+        <v>1.044745245214818</v>
       </c>
       <c r="L6">
-        <v>0.9969517142314396</v>
+        <v>0.9980975484539374</v>
       </c>
       <c r="M6">
-        <v>1.019699342265177</v>
+        <v>1.020273662884458</v>
       </c>
       <c r="N6">
-        <v>1.002996100535754</v>
+        <v>1.006796144627617</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.024162909032709</v>
+        <v>1.024617455761016</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044863157169408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04273323348483</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023721787450538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9768832563759922</v>
+        <v>0.9782651610954747</v>
       </c>
       <c r="D7">
-        <v>1.037952736353756</v>
+        <v>1.034920066726252</v>
       </c>
       <c r="E7">
-        <v>0.9858660037363475</v>
+        <v>0.9870582567316696</v>
       </c>
       <c r="F7">
-        <v>1.008946424489774</v>
+        <v>1.00954378333003</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049577143280328</v>
+        <v>1.048385984911159</v>
       </c>
       <c r="J7">
-        <v>0.9968910484107881</v>
+        <v>0.9982353736258881</v>
       </c>
       <c r="K7">
-        <v>1.047610851837878</v>
+        <v>1.044611675431147</v>
       </c>
       <c r="L7">
-        <v>0.9961350010304735</v>
+        <v>0.9973123732966351</v>
       </c>
       <c r="M7">
-        <v>1.01893509441483</v>
+        <v>1.019525408687386</v>
       </c>
       <c r="N7">
-        <v>1.002715035448619</v>
+        <v>1.006608165478647</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.023558043702273</v>
+        <v>1.024025249038357</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044753470748898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042643379320292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023711998710062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.971035281804153</v>
+        <v>0.9725531105850508</v>
       </c>
       <c r="D8">
-        <v>1.036191905895272</v>
+        <v>1.033274243080503</v>
       </c>
       <c r="E8">
-        <v>0.9812055118255794</v>
+        <v>0.9825141128087389</v>
       </c>
       <c r="F8">
-        <v>1.004557769386476</v>
+        <v>1.005214986479523</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049396007884478</v>
+        <v>1.048263517281461</v>
       </c>
       <c r="J8">
-        <v>0.9935184033499261</v>
+        <v>0.9949885942815141</v>
       </c>
       <c r="K8">
-        <v>1.046902974072362</v>
+        <v>1.04402159500753</v>
       </c>
       <c r="L8">
-        <v>0.9926462320148448</v>
+        <v>0.9939362694201453</v>
       </c>
       <c r="M8">
-        <v>1.015676354714089</v>
+        <v>1.016324777812897</v>
       </c>
       <c r="N8">
-        <v>1.001510635971261</v>
+        <v>1.005736428406126</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020978902249434</v>
+        <v>1.021492099869506</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044257468988284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042231127302479</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023659479572933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9602259581434257</v>
+        <v>0.9619635727494558</v>
       </c>
       <c r="D9">
-        <v>1.032974464665603</v>
+        <v>1.030270984864236</v>
       </c>
       <c r="E9">
-        <v>0.9726427993667474</v>
+        <v>0.9741359681164059</v>
       </c>
       <c r="F9">
-        <v>0.996524668613749</v>
+        <v>0.9972793113494099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048972022628651</v>
+        <v>1.04794787519547</v>
       </c>
       <c r="J9">
-        <v>0.9872658861201588</v>
+        <v>0.9889348899779956</v>
       </c>
       <c r="K9">
-        <v>1.045554285442303</v>
+        <v>1.042891311857524</v>
       </c>
       <c r="L9">
-        <v>0.9861958907662132</v>
+        <v>0.9876630889991881</v>
       </c>
       <c r="M9">
-        <v>1.009674383424476</v>
+        <v>1.010416684597551</v>
       </c>
       <c r="N9">
-        <v>0.9992700114279576</v>
+        <v>1.004013886565359</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.016228594098217</v>
+        <v>1.016816096138447</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043300737566055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041428514036781</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023528600689818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9528095967524144</v>
+        <v>0.9547582750957048</v>
       </c>
       <c r="D10">
-        <v>1.030771624519167</v>
+        <v>1.02821850522849</v>
       </c>
       <c r="E10">
-        <v>0.9668229245988251</v>
+        <v>0.9684968453098439</v>
       </c>
       <c r="F10">
-        <v>0.991315393749345</v>
+        <v>0.9921624617534811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048623684632349</v>
+        <v>1.047676040527289</v>
       </c>
       <c r="J10">
-        <v>0.9830292353278737</v>
+        <v>0.9848894358977333</v>
       </c>
       <c r="K10">
-        <v>1.044606659347697</v>
+        <v>1.042096295725152</v>
       </c>
       <c r="L10">
-        <v>0.9818182019998456</v>
+        <v>0.9834591885746247</v>
       </c>
       <c r="M10">
-        <v>1.005843242056796</v>
+        <v>1.006674682099208</v>
       </c>
       <c r="N10">
-        <v>0.997753507021752</v>
+        <v>1.002978746114565</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0132494516115</v>
+        <v>1.013907462878467</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04264738644989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040884749994384</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023418093429048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9508603715798921</v>
+        <v>0.9529429392513037</v>
       </c>
       <c r="D11">
-        <v>1.029819229223579</v>
+        <v>1.02733281514597</v>
       </c>
       <c r="E11">
-        <v>0.9654452073986555</v>
+        <v>0.9672391819856305</v>
       </c>
       <c r="F11">
-        <v>0.9919079601975606</v>
+        <v>0.992805677504381</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048460176555388</v>
+        <v>1.047547524948373</v>
       </c>
       <c r="J11">
-        <v>0.9824306027776695</v>
+        <v>0.9844133975822948</v>
       </c>
       <c r="K11">
-        <v>1.044199887574685</v>
+        <v>1.04175704886578</v>
       </c>
       <c r="L11">
-        <v>0.9810495846366428</v>
+        <v>0.9828065440504357</v>
       </c>
       <c r="M11">
-        <v>1.006984111198445</v>
+        <v>1.007864555612255</v>
       </c>
       <c r="N11">
-        <v>0.9975955235405244</v>
+        <v>1.003123978452854</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.014600922999931</v>
+        <v>1.015297345298323</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042392311289767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04068067122226</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023366053971972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506233745625917</v>
+        <v>0.9527435788483484</v>
       </c>
       <c r="D12">
-        <v>1.029453713433802</v>
+        <v>1.02699254206065</v>
       </c>
       <c r="E12">
-        <v>0.965373101767929</v>
+        <v>0.9672013912355988</v>
       </c>
       <c r="F12">
-        <v>0.9931106715602619</v>
+        <v>0.9940190468356077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048395032061213</v>
+        <v>1.047495074707292</v>
       </c>
       <c r="J12">
-        <v>0.9826751103751049</v>
+        <v>0.9846918872781419</v>
       </c>
       <c r="K12">
-        <v>1.044037575519721</v>
+        <v>1.041620256280551</v>
       </c>
       <c r="L12">
-        <v>0.9811951890126993</v>
+        <v>0.9829851434126003</v>
       </c>
       <c r="M12">
-        <v>1.008371061260879</v>
+        <v>1.009261736579763</v>
       </c>
       <c r="N12">
-        <v>0.9977342307818674</v>
+        <v>1.003349057428736</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.01603226614517</v>
+        <v>1.016736530803012</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042277553525376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040583957804468</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02334487608274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516786761202511</v>
+        <v>0.9537486643874865</v>
       </c>
       <c r="D13">
-        <v>1.029530397618539</v>
+        <v>1.027063830732071</v>
       </c>
       <c r="E13">
-        <v>0.9662898127055599</v>
+        <v>0.9680737706130468</v>
       </c>
       <c r="F13">
-        <v>0.994880538050738</v>
+        <v>0.9957631318551774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048408748996192</v>
+        <v>1.047505968168571</v>
       </c>
       <c r="J13">
-        <v>0.983578141520433</v>
+        <v>0.9855478399217807</v>
       </c>
       <c r="K13">
-        <v>1.044070686826146</v>
+        <v>1.041647913531637</v>
       </c>
       <c r="L13">
-        <v>0.9820463379449001</v>
+        <v>0.9837931084209934</v>
       </c>
       <c r="M13">
-        <v>1.010062114474569</v>
+        <v>1.010927647792063</v>
       </c>
       <c r="N13">
-        <v>0.9981075485603685</v>
+        <v>1.003609072971687</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.017651618528807</v>
+        <v>1.01833582483028</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042298495319382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040600797411572</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023349284948764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529833473639514</v>
+        <v>0.9549805732064623</v>
       </c>
       <c r="D14">
-        <v>1.029788280008105</v>
+        <v>1.027303960616575</v>
       </c>
       <c r="E14">
-        <v>0.9673628738255615</v>
+        <v>0.9690823166261457</v>
       </c>
       <c r="F14">
-        <v>0.9963436562073219</v>
+        <v>0.9971929292798091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048454682153709</v>
+        <v>1.047543037024122</v>
       </c>
       <c r="J14">
-        <v>0.9844905452279457</v>
+        <v>0.9863925492431063</v>
       </c>
       <c r="K14">
-        <v>1.044185741164019</v>
+        <v>1.041745020394761</v>
       </c>
       <c r="L14">
-        <v>0.9829455075383989</v>
+        <v>0.984629607764179</v>
       </c>
       <c r="M14">
-        <v>1.01135191667118</v>
+        <v>1.012185016353287</v>
       </c>
       <c r="N14">
-        <v>0.9984687532587537</v>
+        <v>1.003803712602987</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.018847394035777</v>
+        <v>1.019505870416009</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042381251826716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040671004028237</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023364245433663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9535951560500212</v>
+        <v>0.9555570252718426</v>
       </c>
       <c r="D15">
-        <v>1.029950514496379</v>
+        <v>1.027455229318709</v>
       </c>
       <c r="E15">
-        <v>0.9678512132572969</v>
+        <v>0.969539327246183</v>
       </c>
       <c r="F15">
-        <v>0.9968752312497428</v>
+        <v>0.9977090187912034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048483410644902</v>
+        <v>1.047566507901962</v>
       </c>
       <c r="J15">
-        <v>0.9848708173755656</v>
+        <v>0.9867400244136554</v>
       </c>
       <c r="K15">
-        <v>1.044259961764017</v>
+        <v>1.041808152363928</v>
       </c>
       <c r="L15">
-        <v>0.983330524102125</v>
+        <v>0.9849842243064725</v>
       </c>
       <c r="M15">
-        <v>1.011784060878322</v>
+        <v>1.012602100687938</v>
       </c>
       <c r="N15">
-        <v>0.9986125078975671</v>
+        <v>1.003865836100943</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.019227047508245</v>
+        <v>1.019873603403109</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042439543227685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04072203356879</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023373706344199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564955579515312</v>
+        <v>0.9582993018209333</v>
       </c>
       <c r="D16">
-        <v>1.030866578896009</v>
+        <v>1.028308467601777</v>
       </c>
       <c r="E16">
-        <v>0.9700997272501979</v>
+        <v>0.9716482215191584</v>
       </c>
       <c r="F16">
-        <v>0.9987672313253403</v>
+        <v>0.9995342013403893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048641046745407</v>
+        <v>1.047692642624566</v>
       </c>
       <c r="J16">
-        <v>0.9864655641738316</v>
+        <v>0.9881885564464526</v>
       </c>
       <c r="K16">
-        <v>1.044664919573699</v>
+        <v>1.04214951277709</v>
       </c>
       <c r="L16">
-        <v>0.9849923368622505</v>
+        <v>0.9865107183399363</v>
       </c>
       <c r="M16">
-        <v>1.013122036210234</v>
+        <v>1.013875168530508</v>
       </c>
       <c r="N16">
-        <v>0.9991727475491006</v>
+        <v>1.004058126575402</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.020245265062836</v>
+        <v>1.020840537394361</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0427290020923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04096683720248</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02342479801811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9580491888256651</v>
+        <v>0.959782421243925</v>
       </c>
       <c r="D17">
-        <v>1.0314369962365</v>
+        <v>1.028839982093617</v>
       </c>
       <c r="E17">
-        <v>0.9712745310353825</v>
+        <v>0.972761139999326</v>
       </c>
       <c r="F17">
-        <v>0.9994602894695165</v>
+        <v>1.000198587308015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048735667631504</v>
+        <v>1.047767757227158</v>
       </c>
       <c r="J17">
-        <v>0.9872207223411289</v>
+        <v>0.9888789235893655</v>
       </c>
       <c r="K17">
-        <v>1.044915393702988</v>
+        <v>1.042360556589546</v>
       </c>
       <c r="L17">
-        <v>0.9858056925623897</v>
+        <v>0.9872642377884596</v>
       </c>
       <c r="M17">
-        <v>1.013477788388531</v>
+        <v>1.014203135465214</v>
       </c>
       <c r="N17">
-        <v>0.9994163353165193</v>
+        <v>1.004137281429827</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.020395349924146</v>
+        <v>1.020968719492773</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0429086635717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041118874377442</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023455332452173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9585405062447959</v>
+        <v>0.9602552954337357</v>
       </c>
       <c r="D18">
-        <v>1.031758202652127</v>
+        <v>1.029138875244548</v>
       </c>
       <c r="E18">
-        <v>0.9715877872406504</v>
+        <v>0.9730581241944524</v>
       </c>
       <c r="F18">
-        <v>0.9990053522357277</v>
+        <v>0.9997384347770647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048787130829848</v>
+        <v>1.047807466563276</v>
       </c>
       <c r="J18">
-        <v>0.9872667830917866</v>
+        <v>0.9889087135412362</v>
       </c>
       <c r="K18">
-        <v>1.04505037552123</v>
+        <v>1.042472900267993</v>
       </c>
       <c r="L18">
-        <v>0.9859156626037542</v>
+        <v>0.9873587000876699</v>
       </c>
       <c r="M18">
-        <v>1.012841276711079</v>
+        <v>1.013561684705347</v>
       </c>
       <c r="N18">
-        <v>0.999390671691012</v>
+        <v>1.004070110094332</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.019650030229026</v>
+        <v>1.020219618231463</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042992565384677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041185621167011</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023471499319526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9580331070963899</v>
+        <v>0.9597678385767782</v>
       </c>
       <c r="D19">
-        <v>1.031875197977585</v>
+        <v>1.029248140731739</v>
       </c>
       <c r="E19">
-        <v>0.971090392679371</v>
+        <v>0.9725777487505318</v>
       </c>
       <c r="F19">
-        <v>0.9973944212617237</v>
+        <v>0.9981401877084519</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048806112497042</v>
+        <v>1.047822816792041</v>
       </c>
       <c r="J19">
-        <v>0.986636473400233</v>
+        <v>0.988297826481954</v>
       </c>
       <c r="K19">
-        <v>1.045103788708061</v>
+        <v>1.042518471984908</v>
       </c>
       <c r="L19">
-        <v>0.9853601883075095</v>
+        <v>0.9868200424014236</v>
       </c>
       <c r="M19">
-        <v>1.011193496637574</v>
+        <v>1.011926385077386</v>
       </c>
       <c r="N19">
-        <v>0.9991152970550653</v>
+        <v>1.003844003760993</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.018014281197723</v>
+        <v>1.018593934447297</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043036666995797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041224809677748</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023477767222361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9547417626132293</v>
+        <v>0.9566005300538241</v>
       </c>
       <c r="D20">
-        <v>1.031375180286341</v>
+        <v>1.028782336290125</v>
       </c>
       <c r="E20">
-        <v>0.9683368211134205</v>
+        <v>0.9699315622949659</v>
       </c>
       <c r="F20">
-        <v>0.9926795168010863</v>
+        <v>0.9934872819766644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048725508055919</v>
+        <v>1.047759644334156</v>
       </c>
       <c r="J20">
-        <v>0.9841361269416087</v>
+        <v>0.9859133894048272</v>
       </c>
       <c r="K20">
-        <v>1.044887892900419</v>
+        <v>1.042337283937799</v>
       </c>
       <c r="L20">
-        <v>0.9829602561099722</v>
+        <v>0.9845245698563528</v>
       </c>
       <c r="M20">
-        <v>1.006852321137273</v>
+        <v>1.007645624599897</v>
       </c>
       <c r="N20">
-        <v>0.9981502472017896</v>
+        <v>1.003170031740435</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.0140371774625</v>
+        <v>1.014665014823547</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042887895673751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041100964395069</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02345203035214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9488905914817436</v>
+        <v>0.9510901937601742</v>
       </c>
       <c r="D21">
-        <v>1.029722686715711</v>
+        <v>1.027243403783896</v>
       </c>
       <c r="E21">
-        <v>0.9637332725668055</v>
+        <v>0.9656314015320858</v>
       </c>
       <c r="F21">
-        <v>0.9882045586896351</v>
+        <v>0.9891626885477202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04844328541862</v>
+        <v>1.047534773020792</v>
       </c>
       <c r="J21">
-        <v>0.980692283462604</v>
+        <v>0.9827853551055334</v>
       </c>
       <c r="K21">
-        <v>1.044162016094864</v>
+        <v>1.04172639203148</v>
       </c>
       <c r="L21">
-        <v>0.97943592006297</v>
+        <v>0.9812945236336797</v>
       </c>
       <c r="M21">
-        <v>1.0034128989722</v>
+        <v>1.004352327569075</v>
       </c>
       <c r="N21">
-        <v>0.9969065337256092</v>
+        <v>1.002700501688672</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.011272855668492</v>
+        <v>1.012016381822469</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0423778596149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040672545805566</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023360840859731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9452019436153153</v>
+        <v>0.9476191951093628</v>
       </c>
       <c r="D22">
-        <v>1.028657052344519</v>
+        <v>1.026251065794869</v>
       </c>
       <c r="E22">
-        <v>0.9608491771326368</v>
+        <v>0.9629417586346861</v>
       </c>
       <c r="F22">
-        <v>0.9855191939830079</v>
+        <v>0.9865731064826659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048249397389832</v>
+        <v>1.047377117275186</v>
       </c>
       <c r="J22">
-        <v>0.9785510074355275</v>
+        <v>0.9808439238956255</v>
       </c>
       <c r="K22">
-        <v>1.043681410035747</v>
+        <v>1.041319824987246</v>
       </c>
       <c r="L22">
-        <v>0.9772382701765076</v>
+        <v>0.9792849139613072</v>
       </c>
       <c r="M22">
-        <v>1.001383082121691</v>
+        <v>1.002415329321121</v>
       </c>
       <c r="N22">
-        <v>0.9961354489458488</v>
+        <v>1.002411275519438</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.00966632094481</v>
+        <v>1.010483311888729</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042024679342392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04037038703557</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023297352686557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9471663825982864</v>
+        <v>0.9494470076135556</v>
       </c>
       <c r="D23">
-        <v>1.029211037751435</v>
+        <v>1.026766249975762</v>
       </c>
       <c r="E23">
-        <v>0.9623842196700569</v>
+        <v>0.9643538737129522</v>
       </c>
       <c r="F23">
-        <v>0.9869479907655145</v>
+        <v>0.9879418464446169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048351065841404</v>
+        <v>1.047458865822012</v>
       </c>
       <c r="J23">
-        <v>0.9796914620778427</v>
+        <v>0.9818584389908444</v>
       </c>
       <c r="K23">
-        <v>1.043925265571843</v>
+        <v>1.041524498031067</v>
       </c>
       <c r="L23">
-        <v>0.9784084963081511</v>
+        <v>0.9803360963973494</v>
       </c>
       <c r="M23">
-        <v>1.002463598699258</v>
+        <v>1.003437573651363</v>
       </c>
       <c r="N23">
-        <v>0.9965461929732145</v>
+        <v>1.002519118245749</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.010521515546389</v>
+        <v>1.01129238485849</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042187559084175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04050461200035</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023330334040631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9547056743657345</v>
+        <v>0.9565652437441946</v>
       </c>
       <c r="D24">
-        <v>1.031382160329544</v>
+        <v>1.028787838295032</v>
       </c>
       <c r="E24">
-        <v>0.9682950681683015</v>
+        <v>0.969890431167582</v>
       </c>
       <c r="F24">
-        <v>0.9924598616585699</v>
+        <v>0.9932686585530024</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048725542854911</v>
+        <v>1.047757767287485</v>
       </c>
       <c r="J24">
-        <v>0.9840661173555026</v>
+        <v>0.9858442538570582</v>
       </c>
       <c r="K24">
-        <v>1.044879706486628</v>
+        <v>1.042327588889256</v>
       </c>
       <c r="L24">
-        <v>0.9829028144791987</v>
+        <v>0.9844677743971092</v>
       </c>
       <c r="M24">
-        <v>1.006620697233951</v>
+        <v>1.00741502436278</v>
       </c>
       <c r="N24">
-        <v>0.9981203620355162</v>
+        <v>1.003142324991093</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.013811716647639</v>
+        <v>1.014440397469812</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042854958004996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041064251943886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023451252082542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630840576767435</v>
+        <v>0.9647476097450691</v>
       </c>
       <c r="D25">
-        <v>1.033840219357871</v>
+        <v>1.031079541487465</v>
       </c>
       <c r="E25">
-        <v>0.9749004626208887</v>
+        <v>0.9763304150659264</v>
       </c>
       <c r="F25">
-        <v>0.9986390619836494</v>
+        <v>0.9993609773326315</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049098967336484</v>
+        <v>1.048047046828999</v>
       </c>
       <c r="J25">
-        <v>0.9889210226421804</v>
+        <v>0.9905225218156206</v>
       </c>
       <c r="K25">
-        <v>1.04593497792716</v>
+        <v>1.043213811772466</v>
       </c>
       <c r="L25">
-        <v>0.9879013278409009</v>
+        <v>0.9893076311733381</v>
       </c>
       <c r="M25">
-        <v>1.011258541563161</v>
+        <v>1.011969221411081</v>
       </c>
       <c r="N25">
-        <v>0.9998639716349339</v>
+        <v>1.004434962359667</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.017482392021205</v>
+        <v>1.018044865976343</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043598245509948</v>
+        <v>1.041687724383018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023569570269883</v>
       </c>
     </row>
   </sheetData>
